--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,118 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Edgar Josué Malagón Montaña</author>
+  </authors>
+  <commentList>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edgar Josué Malagón Montaña:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Falta la descripción y comentarios del recurso</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edgar Josué Malagón Montaña:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Qué tipo de motor se recomienda.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edgar Josué Malagón Montaña:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+En el cuaderno se habla de rectas paralelas y perpendiculares</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Edgar Josué Malagón Montaña:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+proqué no se numeran</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
   <si>
     <t>Asignatura</t>
   </si>
@@ -398,16 +504,10 @@
     <t>Las funciones</t>
   </si>
   <si>
-    <t>El concepto de función</t>
-  </si>
-  <si>
     <t>Interactivo  para explicar el concepto de función, sus formas de representación y aplicaciones</t>
   </si>
   <si>
     <t>Identifica qué relaciones son funciones</t>
-  </si>
-  <si>
-    <t>Actividad para cuáles de las relaciones dadas corresponden a funciones</t>
   </si>
   <si>
     <t>En las imágenes se ubican tablas que relacionan las variables x y y.  Sugerir al menos cinco ejercicios. Las alternativas de respuestas son: Es función; No es función.</t>
@@ -431,9 +531,6 @@
     <t>Identifica el dominio de la función</t>
   </si>
   <si>
-    <t>Actividad para identificar el dominio e una función</t>
-  </si>
-  <si>
     <t>Introducción a las funciones y sus gráficas</t>
   </si>
   <si>
@@ -455,12 +552,6 @@
     <t>En las imágenes deben proponerse relaciones que se representen como parábolas, como rectas, como polinómicas, etc. Sugerir mínimo 6 ejercicios.</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El concepto de función</t>
-  </si>
-  <si>
-    <t>Actividades sobre El concepto de función</t>
-  </si>
-  <si>
     <t>Proponer actividades de variación entre magnitudes, funciones, dominio, rango, representaciones graficas, análisis de funciones</t>
   </si>
   <si>
@@ -762,13 +853,34 @@
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Actividad para identificar cuáles de las relaciones dadas corresponden a funciones</t>
+  </si>
+  <si>
+    <t>Actividad para identificar el dominio de una función</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las funciones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Las funciones  </t>
+  </si>
+  <si>
+    <t>Actividades sobre Las funciones</t>
+  </si>
+  <si>
+    <t>11 Interactivos</t>
+  </si>
+  <si>
+    <t>24 recursos M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -806,8 +918,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +1011,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -955,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1021,25 +1152,40 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,37 +1227,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1417,12 +1555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1571,10 @@
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="74.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
@@ -1451,96 +1589,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="52"/>
+      <c r="V1" s="32"/>
     </row>
     <row r="2" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="48"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="52"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="32"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1553,12 +1691,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1567,7 +1705,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>19</v>
@@ -1578,22 +1716,22 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R3" s="57" t="s">
+      <c r="P3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="U3" s="56"/>
+      <c r="S3" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T3" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="33"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1606,21 +1744,21 @@
         <v>123</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="51">
+        <v>125</v>
+      </c>
+      <c r="H4" s="31">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1633,25 +1771,25 @@
         <v>33</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="56">
+        <v>126</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="33">
         <v>6</v>
       </c>
-      <c r="R4" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>228</v>
+      <c r="R4" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1665,21 +1803,21 @@
         <v>123</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="51">
+        <v>127</v>
+      </c>
+      <c r="H5" s="31">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1692,25 +1830,25 @@
         <v>29</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="56">
+        <v>129</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="33">
         <v>6</v>
       </c>
-      <c r="R5" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S5" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>228</v>
+      <c r="R5" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,21 +1862,21 @@
         <v>123</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="51">
+        <v>130</v>
+      </c>
+      <c r="H6" s="31">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -1749,23 +1887,23 @@
       <c r="M6" s="8"/>
       <c r="N6" s="30"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="56">
+      <c r="P6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="33">
         <v>6</v>
       </c>
-      <c r="R6" s="57" t="s">
+      <c r="R6" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="S6" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="U6" s="56" t="s">
-        <v>232</v>
+      <c r="T6" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1779,12 +1917,12 @@
         <v>123</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H7" s="21">
         <v>5</v>
@@ -1793,7 +1931,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1806,25 +1944,25 @@
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="56">
+        <v>134</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="33">
         <v>6</v>
       </c>
-      <c r="R7" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="T7" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="U7" s="56" t="s">
-        <v>236</v>
+      <c r="R7" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1838,21 +1976,21 @@
         <v>123</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="51">
+        <v>135</v>
+      </c>
+      <c r="H8" s="31">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1865,25 +2003,25 @@
         <v>33</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P8" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="33">
         <v>6</v>
       </c>
-      <c r="R8" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S8" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T8" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="U8" s="56" t="s">
-        <v>228</v>
+      <c r="R8" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1897,23 +2035,23 @@
         <v>123</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="51">
+        <v>242</v>
+      </c>
+      <c r="H9" s="31">
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>20</v>
@@ -1926,25 +2064,25 @@
         <v>121</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="P9" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="56">
+        <v>138</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="33">
         <v>6</v>
       </c>
-      <c r="R9" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S9" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="U9" s="56" t="s">
-        <v>228</v>
+      <c r="R9" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1954,38 +2092,38 @@
       <c r="D10" s="18"/>
       <c r="E10" s="13"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="G10" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="51" t="s">
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="63">
         <v>10</v>
       </c>
-      <c r="R10" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S10" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T10" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="U10" s="56" t="s">
-        <v>212</v>
+      <c r="R10" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="U10" s="63" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1999,21 +2137,21 @@
         <v>123</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="51">
+        <v>141</v>
+      </c>
+      <c r="H11" s="31">
         <v>8</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2024,24 +2162,24 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R11" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T11" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="U11" s="56"/>
+      <c r="S11" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -2054,12 +2192,12 @@
         <v>123</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H12" s="21">
         <v>9</v>
@@ -2068,7 +2206,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
@@ -2081,23 +2219,23 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="56">
+      <c r="P12" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="33">
         <v>6</v>
       </c>
-      <c r="R12" s="57" t="s">
+      <c r="R12" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="T12" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="S12" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="T12" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="U12" s="56" t="s">
-        <v>236</v>
+      <c r="U12" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2111,21 +2249,21 @@
         <v>123</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="51">
+        <v>145</v>
+      </c>
+      <c r="H13" s="31">
         <v>10</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -2136,22 +2274,22 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="56" t="s">
+      <c r="P13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="R13" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T13" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="U13" s="56"/>
+      <c r="U13" s="33"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -2164,21 +2302,21 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="51">
+        <v>144</v>
+      </c>
+      <c r="H14" s="31">
         <v>11</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2189,22 +2327,22 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R14" s="57" t="s">
+      <c r="P14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T14" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="T14" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="U14" s="56"/>
+      <c r="U14" s="33"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -2217,21 +2355,21 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H15" s="51">
+        <v>151</v>
+      </c>
+      <c r="H15" s="31">
         <v>12</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>19</v>
@@ -2242,22 +2380,22 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R15" s="57" t="s">
+      <c r="P15" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T15" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="U15" s="56"/>
+      <c r="S15" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="U15" s="33"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -2270,12 +2408,12 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H16" s="21">
         <v>13</v>
@@ -2284,7 +2422,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -2295,22 +2433,22 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R16" s="57" t="s">
+      <c r="P16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T16" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="U16" s="56"/>
+      <c r="S16" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -2323,21 +2461,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="51">
+        <v>154</v>
+      </c>
+      <c r="H17" s="31">
         <v>14</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2348,22 +2486,22 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R17" s="57" t="s">
+      <c r="P17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T17" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="U17" s="56"/>
+      <c r="S17" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -2376,21 +2514,21 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="51">
+        <v>156</v>
+      </c>
+      <c r="H18" s="31">
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
@@ -2401,22 +2539,22 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R18" s="57" t="s">
+      <c r="P18" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T18" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="U18" s="56"/>
+      <c r="S18" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -2429,21 +2567,21 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="51">
+        <v>158</v>
+      </c>
+      <c r="H19" s="31">
         <v>16</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -2454,22 +2592,22 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R19" s="57" t="s">
+      <c r="P19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T19" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="U19" s="56"/>
+      <c r="S19" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -2482,12 +2620,12 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H20" s="21">
         <v>17</v>
@@ -2496,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2507,22 +2645,22 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R20" s="57" t="s">
+      <c r="P20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R20" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T20" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="U20" s="56"/>
+      <c r="S20" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="U20" s="33"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -2535,21 +2673,21 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="51">
+        <v>161</v>
+      </c>
+      <c r="H21" s="31">
         <v>18</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2560,22 +2698,22 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R21" s="57" t="s">
+      <c r="P21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R21" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T21" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="U21" s="56"/>
+      <c r="S21" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="U21" s="33"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2588,21 +2726,21 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="51">
+        <v>162</v>
+      </c>
+      <c r="H22" s="31">
         <v>19</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2613,22 +2751,22 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R22" s="57" t="s">
+      <c r="P22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R22" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T22" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="U22" s="56"/>
+      <c r="S22" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -2641,21 +2779,21 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="51">
+        <v>166</v>
+      </c>
+      <c r="H23" s="31">
         <v>20</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2666,22 +2804,22 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R23" s="57" t="s">
+      <c r="P23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T23" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="U23" s="56"/>
+      <c r="S23" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -2694,12 +2832,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H24" s="21">
         <v>21</v>
@@ -2708,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>19</v>
@@ -2719,22 +2857,22 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R24" s="57" t="s">
+      <c r="P24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R24" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S24" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T24" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="U24" s="56"/>
+      <c r="S24" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -2747,21 +2885,21 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H25" s="51">
+        <v>170</v>
+      </c>
+      <c r="H25" s="31">
         <v>22</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>19</v>
@@ -2772,22 +2910,22 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R25" s="57" t="s">
+      <c r="P25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R25" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T25" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="U25" s="56"/>
+      <c r="S25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -2800,23 +2938,23 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="51">
+        <v>172</v>
+      </c>
+      <c r="H26" s="31">
         <v>23</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
@@ -2829,25 +2967,25 @@
         <v>121</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="P26" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="56">
+        <v>174</v>
+      </c>
+      <c r="P26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="33">
         <v>6</v>
       </c>
-      <c r="R26" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S26" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T26" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="U26" s="56" t="s">
-        <v>228</v>
+      <c r="R26" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2861,21 +2999,21 @@
         <v>123</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="51">
+        <v>175</v>
+      </c>
+      <c r="H27" s="31">
         <v>24</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -2886,23 +3024,23 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="56">
+      <c r="P27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="33">
         <v>10</v>
       </c>
-      <c r="R27" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S27" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T27" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="U27" s="56" t="s">
-        <v>212</v>
+      <c r="R27" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S27" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="U27" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2916,12 +3054,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H28" s="21">
         <v>25</v>
@@ -2930,7 +3068,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -2941,23 +3079,23 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="56">
+      <c r="P28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="33">
         <v>10</v>
       </c>
-      <c r="R28" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S28" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T28" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="U28" s="56" t="s">
-        <v>212</v>
+      <c r="R28" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S28" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T28" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="U28" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2968,7 +3106,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="5"/>
@@ -2982,22 +3120,22 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="51" t="s">
+      <c r="P29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R29" s="57" t="s">
+      <c r="Q29" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R29" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S29" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T29" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="U29" s="56"/>
+      <c r="S29" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T29" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
@@ -3007,7 +3145,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="5"/>
@@ -3021,22 +3159,22 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="51" t="s">
+      <c r="P30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="R30" s="57" t="s">
+      <c r="Q30" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="T30" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="U30" s="56"/>
+      <c r="S30" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="T30" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -3049,21 +3187,21 @@
         <v>123</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="51">
+        <v>179</v>
+      </c>
+      <c r="H31" s="31">
         <v>26</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
@@ -3074,23 +3212,23 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="56">
+      <c r="P31" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="33">
         <v>10</v>
       </c>
-      <c r="R31" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S31" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T31" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="U31" s="56" t="s">
-        <v>212</v>
+      <c r="R31" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S31" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="U31" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3102,21 +3240,21 @@
         <v>123</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="H32" s="51">
+        <v>187</v>
+      </c>
+      <c r="H32" s="31">
         <v>27</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -3129,25 +3267,25 @@
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="56">
+        <v>189</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="33">
         <v>6</v>
       </c>
-      <c r="R32" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="S32" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="T32" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="U32" s="56" t="s">
-        <v>236</v>
+      <c r="R32" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="S32" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="U32" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3161,21 +3299,21 @@
         <v>123</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="51">
+        <v>181</v>
+      </c>
+      <c r="H33" s="31">
         <v>28</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>19</v>
@@ -3186,23 +3324,23 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="56">
+      <c r="P33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="33">
         <v>10</v>
       </c>
-      <c r="R33" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S33" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T33" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="U33" s="56" t="s">
-        <v>212</v>
+      <c r="R33" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S33" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="U33" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3216,12 +3354,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H34" s="21">
         <v>29</v>
@@ -3230,7 +3368,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3241,23 +3379,23 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="56">
+      <c r="P34" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="33">
         <v>10</v>
       </c>
-      <c r="R34" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S34" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T34" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="U34" s="56" t="s">
-        <v>212</v>
+      <c r="R34" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S34" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T34" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="U34" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3271,21 +3409,21 @@
         <v>123</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="51">
+        <v>185</v>
+      </c>
+      <c r="H35" s="31">
         <v>30</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3298,25 +3436,25 @@
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="P35" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="P35" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="56">
+      <c r="Q35" s="33">
         <v>6</v>
       </c>
-      <c r="R35" s="57" t="s">
+      <c r="R35" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S35" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="S35" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="T35" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="U35" s="56" t="s">
-        <v>232</v>
+      <c r="T35" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="U35" s="33" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3330,23 +3468,23 @@
         <v>123</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H36" s="51">
+        <v>190</v>
+      </c>
+      <c r="H36" s="31">
         <v>31</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>19</v>
@@ -3357,23 +3495,23 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="56">
+      <c r="P36" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="33">
         <v>10</v>
       </c>
-      <c r="R36" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="S36" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="T36" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="U36" s="56" t="s">
-        <v>212</v>
+      <c r="R36" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="S36" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="T36" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="U36" s="33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3387,21 +3525,21 @@
         <v>123</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="51">
+        <v>193</v>
+      </c>
+      <c r="H37" s="31">
         <v>32</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3414,25 +3552,25 @@
         <v>120</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="P37" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="56">
+        <v>202</v>
+      </c>
+      <c r="P37" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="33">
         <v>6</v>
       </c>
-      <c r="R37" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S37" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T37" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="U37" s="56" t="s">
-        <v>228</v>
+      <c r="R37" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S37" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="U37" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3446,7 +3584,7 @@
         <v>123</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
@@ -3460,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
@@ -3471,14 +3609,14 @@
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="56"/>
+      <c r="P38" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
@@ -3491,21 +3629,21 @@
         <v>123</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H39" s="51">
+        <v>195</v>
+      </c>
+      <c r="H39" s="31">
         <v>34</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>20</v>
@@ -3518,25 +3656,25 @@
         <v>33</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="P39" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="56">
+        <v>203</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="33">
         <v>6</v>
       </c>
-      <c r="R39" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S39" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T39" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="U39" s="56" t="s">
-        <v>228</v>
+      <c r="R39" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S39" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T39" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="U39" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3547,16 +3685,16 @@
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" s="51">
+        <v>198</v>
+      </c>
+      <c r="H40" s="31">
         <v>35</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>20</v>
@@ -3569,25 +3707,25 @@
         <v>52</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="P40" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="P40" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q40" s="56">
+      <c r="Q40" s="33">
         <v>6</v>
       </c>
-      <c r="R40" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="S40" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="T40" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="U40" s="56" t="s">
-        <v>228</v>
+      <c r="R40" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="S40" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="U40" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3607,11 +3745,11 @@
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="56"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -3630,11 +3768,11 @@
       <c r="N42" s="8"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="56"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -3653,11 +3791,11 @@
       <c r="N43" s="8"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="56"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -3692,7 +3830,9 @@
       <c r="G45" s="16"/>
       <c r="H45" s="9"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
@@ -3715,7 +3855,9 @@
       <c r="G46" s="16"/>
       <c r="H46" s="9"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
@@ -4738,6 +4880,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4752,15 +4900,10 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
     <author>Edgar Josué Malagón Montaña</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
+    <comment ref="N10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0">
+    <comment ref="H28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="242">
   <si>
     <t>Asignatura</t>
   </si>
@@ -513,21 +513,6 @@
     <t>En las imágenes se ubican tablas que relacionan las variables x y y.  Sugerir al menos cinco ejercicios. Las alternativas de respuestas son: Es función; No es función.</t>
   </si>
   <si>
-    <t>Relaciona funciones con su expresión algebraica</t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar a una expresión algebraica un elemento de su domnio</t>
-  </si>
-  <si>
-    <t>En las imágenes de la izquierda sugerir las expresiones x/2  + 2; y + 1/y; =RAIZ(2x); Raizcúbica(x)/3; (a + 4)EXP(4); xEXP(2) + 10.
-En las alternativas de la derecha escribir: La mitad de un número más 2. 
-La suma de un número y su recíproco.
-La raíz cuadrada del doble de un número. s
-La tercera parte de la raíz cúbica de un número. 
-La cuarta potencia de un número más cuatro. 
-El cuadrado de un número más 10</t>
-  </si>
-  <si>
     <t>Identifica el dominio de la función</t>
   </si>
   <si>
@@ -579,12 +564,6 @@
     <t>Interactivo que muestra representaciones de funciones lineales y afines</t>
   </si>
   <si>
-    <t xml:space="preserve">Las funciones afines </t>
-  </si>
-  <si>
-    <t>Interactivo para reconocer las características y la expresión de las funciones afines</t>
-  </si>
-  <si>
     <t>Actividad para practicar la representación de funciones lineales y afines</t>
   </si>
   <si>
@@ -717,12 +696,6 @@
     <t>Competencias</t>
   </si>
   <si>
-    <t>Competencias: situaciones que se modelan con funciones lineales y cuadráticas</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar el analisis de situaciones que se modelan con funciones lineales y cuadráticas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Evaluación </t>
   </si>
   <si>
@@ -810,9 +783,6 @@
     <t>RM_01_01_CO</t>
   </si>
   <si>
-    <t>Recurso M3A-01</t>
-  </si>
-  <si>
     <t>Recursos M aleatorios y diaporama F1</t>
   </si>
   <si>
@@ -837,9 +807,6 @@
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
@@ -874,6 +841,21 @@
   </si>
   <si>
     <t>24 recursos M</t>
+  </si>
+  <si>
+    <t>Interactivo que repasa el concepto de depemdencia lineal</t>
+  </si>
+  <si>
+    <t>Competencias: practica de las ecuaciones de una recta</t>
+  </si>
+  <si>
+    <t>Actividad que propone establecer las ecuaciones de las rectas que corresponden a las medianas de un triángulo. Relaciona pensamientos variacional y espacial</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra la representación de funiones lineales y cuadráticas</t>
+  </si>
+  <si>
+    <t>Actividad para practica la representación de rectas y parábolas con Geogebra</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1146,9 +1128,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,16 +1155,41 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1226,31 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V288"/>
+  <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,82 +1568,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="53"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="41" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="R1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="56" t="s">
+      <c r="S1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="32"/>
+      <c r="V1" s="31"/>
     </row>
     <row r="2" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="28" t="s">
         <v>90</v>
       </c>
@@ -1673,12 +1652,12 @@
       </c>
       <c r="O2" s="42"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="32"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1691,12 +1670,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H3" s="21">
         <v>1</v>
@@ -1716,22 +1695,22 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R3" s="34" t="s">
+      <c r="Q3" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="U3" s="33"/>
+      <c r="S3" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1751,14 +1730,14 @@
       <c r="G4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1773,26 +1752,26 @@
       <c r="O4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="32">
         <v>6</v>
       </c>
-      <c r="R4" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S4" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T4" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -1810,14 +1789,14 @@
       <c r="G5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="21">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1826,29 +1805,25 @@
         <v>8</v>
       </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="N5" s="29"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="32">
         <v>6</v>
       </c>
-      <c r="R5" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T5" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>223</v>
+      <c r="R5" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1867,43 +1842,47 @@
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="30">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="H6" s="31">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="32">
         <v>6</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="S6" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>227</v>
+      <c r="S6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1928,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>133</v>
@@ -1937,32 +1916,32 @@
         <v>20</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="O7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="33">
+      <c r="P7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
-      <c r="R7" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>231</v>
+      <c r="R7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1978,19 +1957,21 @@
       <c r="D8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="31">
+        <v>233</v>
+      </c>
+      <c r="H8" s="30">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -2000,131 +1981,129 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>6</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="21">
+        <v>7</v>
+      </c>
+      <c r="I9" s="40"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>10</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>6</v>
-      </c>
-      <c r="R8" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="31">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>6</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
       <c r="E10" s="13"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="64" t="s">
+      <c r="G10" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="30">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="J10" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="63">
-        <v>10</v>
-      </c>
-      <c r="R10" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="U10" s="63" t="s">
-        <v>207</v>
-      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
@@ -2137,21 +2116,21 @@
         <v>123</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="31">
-        <v>8</v>
+        <v>142</v>
+      </c>
+      <c r="H11" s="21">
+        <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -2161,25 +2140,23 @@
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" s="31" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R11" s="34" t="s">
+      <c r="Q11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="U11" s="33"/>
+      <c r="S11" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -2192,51 +2169,47 @@
         <v>123</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="21">
-        <v>9</v>
+        <v>141</v>
+      </c>
+      <c r="H12" s="30">
+        <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="33">
-        <v>6</v>
-      </c>
-      <c r="R12" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>231</v>
-      </c>
+      <c r="Q12" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
@@ -2249,47 +2222,47 @@
         <v>123</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="21">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="H13" s="31">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="33" t="s">
+      <c r="Q13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T13" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T13" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="U13" s="33"/>
+      <c r="U13" s="32"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -2302,21 +2275,21 @@
         <v>123</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="31">
-        <v>11</v>
+        <v>147</v>
+      </c>
+      <c r="H14" s="30">
+        <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
@@ -2327,22 +2300,22 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R14" s="34" t="s">
+      <c r="Q14" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="33" t="s">
+      <c r="S14" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T14" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="T14" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="32"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -2355,15 +2328,15 @@
         <v>123</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="31">
-        <v>12</v>
+        <v>149</v>
+      </c>
+      <c r="H15" s="21">
+        <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
@@ -2380,22 +2353,22 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R15" s="34" t="s">
+      <c r="Q15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="33" t="s">
-        <v>211</v>
+      <c r="S15" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="U15" s="33"/>
+        <v>149</v>
+      </c>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -2408,47 +2381,47 @@
         <v>123</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="30">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" s="21">
-        <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R16" s="34" t="s">
+      <c r="Q16" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="U16" s="33"/>
+      <c r="S16" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
@@ -2461,21 +2434,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="31">
-        <v>14</v>
+        <v>153</v>
+      </c>
+      <c r="H17" s="21">
+        <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -2486,22 +2459,22 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R17" s="34" t="s">
+      <c r="Q17" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="U17" s="33"/>
+      <c r="S17" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -2514,47 +2487,47 @@
         <v>123</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="31">
-        <v>15</v>
+        <v>155</v>
+      </c>
+      <c r="H18" s="30">
+        <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R18" s="34" t="s">
+      <c r="Q18" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="U18" s="33"/>
+      <c r="S18" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -2567,15 +2540,15 @@
         <v>123</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="31">
-        <v>16</v>
+        <v>156</v>
+      </c>
+      <c r="H19" s="21">
+        <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
@@ -2592,22 +2565,22 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R19" s="34" t="s">
+      <c r="Q19" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="33"/>
+      <c r="S19" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -2620,21 +2593,21 @@
         <v>123</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="21">
-        <v>17</v>
+        <v>157</v>
+      </c>
+      <c r="H20" s="30">
+        <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -2645,22 +2618,22 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R20" s="34" t="s">
+      <c r="Q20" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="U20" s="33"/>
+      <c r="S20" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="U20" s="32"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -2673,21 +2646,21 @@
         <v>123</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="31">
-        <v>18</v>
+      <c r="H21" s="21">
+        <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>19</v>
@@ -2698,22 +2671,22 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R21" s="34" t="s">
+      <c r="Q21" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T21" s="35" t="s">
+      <c r="S21" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T21" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="U21" s="33"/>
+      <c r="U21" s="32"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2726,21 +2699,21 @@
         <v>123</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="31">
-        <v>19</v>
+        <v>163</v>
+      </c>
+      <c r="H22" s="30">
+        <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
@@ -2751,22 +2724,22 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R22" s="34" t="s">
+      <c r="Q22" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="U22" s="33"/>
+      <c r="S22" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
@@ -2779,21 +2752,21 @@
         <v>123</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="31">
-        <v>20</v>
+        <v>165</v>
+      </c>
+      <c r="H23" s="21">
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
@@ -2804,22 +2777,22 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R23" s="34" t="s">
+      <c r="Q23" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="U23" s="33"/>
+      <c r="S23" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T23" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -2832,47 +2805,55 @@
         <v>123</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>137</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="21">
-        <v>21</v>
+        <v>167</v>
+      </c>
+      <c r="H24" s="30">
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="31" t="s">
+      <c r="N24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="U24" s="33"/>
+      <c r="Q24" s="32">
+        <v>6</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
@@ -2885,18 +2866,18 @@
         <v>123</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="31">
-        <v>22</v>
+      <c r="H25" s="21">
+        <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" s="17" t="s">
         <v>171</v>
@@ -2905,27 +2886,29 @@
         <v>19</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R25" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T25" s="35" t="s">
+      <c r="Q25" s="32">
+        <v>10</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T25" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="U25" s="33"/>
+      <c r="U25" s="32" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -2938,82 +2921,68 @@
         <v>123</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>139</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="31">
-        <v>23</v>
+      <c r="H26" s="30">
+        <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="31" t="s">
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="33">
-        <v>6</v>
-      </c>
-      <c r="R26" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T26" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="U26" s="33" t="s">
-        <v>223</v>
+      <c r="Q26" s="32">
+        <v>10</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T26" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="U26" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="31">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="H27" s="21">
+        <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -3024,157 +2993,179 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="33">
-        <v>10</v>
-      </c>
-      <c r="R27" s="34" t="s">
+      <c r="P27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T27" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="S27" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="T27" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="U27" s="33" t="s">
-        <v>207</v>
-      </c>
+      <c r="U27" s="32"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>175</v>
-      </c>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="21">
-        <v>25</v>
+        <v>206</v>
+      </c>
+      <c r="H28" s="30">
+        <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="33">
-        <v>10</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S28" s="33" t="s">
+      <c r="P28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="T28" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="T28" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="U28" s="33" t="s">
-        <v>207</v>
-      </c>
+      <c r="U28" s="32"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="15"/>
+      <c r="A29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="17"/>
+        <v>174</v>
+      </c>
+      <c r="H29" s="21">
+        <v>27</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R29" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S29" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T29" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="U29" s="33"/>
+      <c r="P29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>10</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T29" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="U29" s="32" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>170</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="H30" s="30">
+        <v>28</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R30" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S30" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="T30" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="U30" s="33"/>
+      <c r="Q30" s="32">
+        <v>6</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
@@ -3187,21 +3178,21 @@
         <v>123</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="31">
-        <v>26</v>
+        <v>176</v>
+      </c>
+      <c r="H31" s="21">
+        <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>19</v>
@@ -3212,27 +3203,29 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="32">
         <v>10</v>
       </c>
-      <c r="R31" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S31" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="U31" s="33" t="s">
-        <v>207</v>
+      <c r="R31" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S31" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T31" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="U31" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="B32" s="19" t="s">
         <v>122</v>
       </c>
@@ -3240,52 +3233,48 @@
         <v>123</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="31">
-        <v>27</v>
+        <v>178</v>
+      </c>
+      <c r="H32" s="30">
+        <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M32" s="8"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="P32" s="31" t="s">
+      <c r="O32" s="9"/>
+      <c r="P32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="33">
-        <v>6</v>
-      </c>
-      <c r="R32" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="S32" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="T32" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="U32" s="33" t="s">
-        <v>231</v>
+      <c r="Q32" s="32">
+        <v>10</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3299,48 +3288,52 @@
         <v>123</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H33" s="31">
-        <v>28</v>
+        <v>180</v>
+      </c>
+      <c r="H33" s="21">
+        <v>31</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M33" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>10</v>
-      </c>
-      <c r="R33" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S33" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="T33" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="U33" s="33" t="s">
-        <v>207</v>
+      <c r="O33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>6</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S33" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="U33" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3354,21 +3347,23 @@
         <v>123</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="21">
-        <v>29</v>
+        <v>185</v>
+      </c>
+      <c r="H34" s="30">
+        <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>19</v>
@@ -3379,23 +3374,23 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="31" t="s">
+      <c r="P34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="32">
         <v>10</v>
       </c>
-      <c r="R34" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S34" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="T34" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="U34" s="33" t="s">
-        <v>207</v>
+      <c r="R34" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T34" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="U34" s="32" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3409,52 +3404,52 @@
         <v>123</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="31">
-        <v>30</v>
+        <v>238</v>
+      </c>
+      <c r="H35" s="21">
+        <v>33</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="O35" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="P35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="33">
+        <v>195</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="32">
         <v>6</v>
       </c>
-      <c r="R35" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S35" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="U35" s="33" t="s">
-        <v>227</v>
+      <c r="R35" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S35" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="U35" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3468,51 +3463,39 @@
         <v>123</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>139</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H36" s="31">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="H36" s="30">
+        <v>34</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="33">
-        <v>10</v>
-      </c>
-      <c r="R36" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="S36" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="T36" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="U36" s="33" t="s">
-        <v>207</v>
-      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="32"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
@@ -3530,16 +3513,16 @@
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="31">
-        <v>32</v>
+        <v>188</v>
+      </c>
+      <c r="H37" s="21">
+        <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
@@ -3549,133 +3532,103 @@
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="P37" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="P37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="32">
         <v>6</v>
       </c>
-      <c r="R37" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S37" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="U37" s="33" t="s">
-        <v>223</v>
+      <c r="R37" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S37" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="U37" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="21">
-        <v>33</v>
+        <v>191</v>
+      </c>
+      <c r="H38" s="30">
+        <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="33"/>
+      <c r="N38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>6</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>199</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="31">
-        <v>34</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="P39" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="33">
-        <v>6</v>
-      </c>
-      <c r="R39" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S39" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T39" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="U39" s="33" t="s">
-        <v>223</v>
-      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="32"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -3684,49 +3637,21 @@
       <c r="D40" s="15"/>
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40" s="31">
-        <v>35</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="P40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="33">
-        <v>6</v>
-      </c>
-      <c r="R40" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="S40" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="T40" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="U40" s="33" t="s">
-        <v>223</v>
-      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="32"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -3745,11 +3670,11 @@
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="33"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -3768,11 +3693,11 @@
       <c r="N42" s="8"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="33"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
@@ -3784,18 +3709,20 @@
       <c r="G43" s="16"/>
       <c r="H43" s="9"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="17" t="s">
+        <v>235</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="33"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -3807,7 +3734,9 @@
       <c r="G44" s="16"/>
       <c r="H44" s="9"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
       <c r="M44" s="8"/>
@@ -3830,9 +3759,7 @@
       <c r="G45" s="16"/>
       <c r="H45" s="9"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="17" t="s">
-        <v>244</v>
-      </c>
+      <c r="J45" s="17"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
@@ -3855,9 +3782,7 @@
       <c r="G46" s="16"/>
       <c r="H46" s="9"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="17" t="s">
-        <v>245</v>
-      </c>
+      <c r="J46" s="17"/>
       <c r="K46" s="7"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
@@ -4468,52 +4393,8 @@
       <c r="T72" s="12"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="10"/>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="10"/>
-    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4525,193 +4406,193 @@
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4873,19 +4754,11 @@
     <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="287" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="288" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4900,6 +4773,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4911,31 +4790,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N74</xm:sqref>
+          <xm:sqref>N3:N72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A74</xm:sqref>
+          <xm:sqref>A3:A72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I74 K3:K74 P3:P74</xm:sqref>
+          <xm:sqref>P3:P72 K3:K72 I3:I72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L74</xm:sqref>
+          <xm:sqref>L3:L72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M74</xm:sqref>
+          <xm:sqref>M3:M72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="240">
   <si>
     <t>Asignatura</t>
   </si>
@@ -717,9 +717,6 @@
     <t>Mostrar situaciones que se modelan con funciones lineales y/o cuadráticas. Mostrar procesos de tabulación, representación, entre otras.</t>
   </si>
   <si>
-    <t>Explicar la modelación de situaciones con funciones lineales y cuadráticas. Dar objetivo de la actividad y proponer situaciones para que los estudiantes modelen mediante esas funciones</t>
-  </si>
-  <si>
     <t>Actividades que permitan evaluar lo trabajado en el tema sobre funciones, variación, funciones lineales y funciones cuadráticas</t>
   </si>
   <si>
@@ -814,9 +811,6 @@
   </si>
   <si>
     <t>Diaporama F1-01</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
   </si>
   <si>
     <t>Recurso M101AP-01</t>
@@ -1538,8 +1532,8 @@
   <dimension ref="A1:V286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1664,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="21"/>
@@ -1699,16 +1693,16 @@
         <v>19</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U3" s="32"/>
     </row>
@@ -1737,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1759,16 +1753,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S4" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="T4" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="U4" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1796,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1814,16 +1808,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S5" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="T5" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="U5" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1873,16 +1867,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="T6" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="U6" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1932,16 +1926,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="T7" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="U7" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1962,7 +1956,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -1971,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1993,16 +1987,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S8" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S8" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="T8" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2013,7 +2007,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="9"/>
       <c r="G9" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H9" s="21">
         <v>7</v>
@@ -2029,7 +2023,7 @@
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>20</v>
@@ -2038,16 +2032,16 @@
         <v>10</v>
       </c>
       <c r="R9" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="S9" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="T9" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="U9" s="39" t="s">
         <v>199</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2092,13 +2086,13 @@
         <v>19</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S10" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T10" s="33" t="s">
         <v>138</v>
@@ -2145,16 +2139,16 @@
         <v>19</v>
       </c>
       <c r="Q11" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R11" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T11" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U11" s="32"/>
     </row>
@@ -2198,16 +2192,16 @@
         <v>19</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R12" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S12" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U12" s="32"/>
     </row>
@@ -2251,16 +2245,16 @@
         <v>19</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R13" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T13" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U13" s="32"/>
     </row>
@@ -2304,16 +2298,16 @@
         <v>19</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R14" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U14" s="32"/>
     </row>
@@ -2357,13 +2351,13 @@
         <v>19</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R15" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T15" s="34" t="s">
         <v>149</v>
@@ -2410,13 +2404,13 @@
         <v>19</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R16" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S16" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T16" s="34" t="s">
         <v>151</v>
@@ -2463,13 +2457,13 @@
         <v>19</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R17" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T17" s="34" t="s">
         <v>153</v>
@@ -2516,13 +2510,13 @@
         <v>19</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R18" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T18" s="34" t="s">
         <v>155</v>
@@ -2569,13 +2563,13 @@
         <v>19</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R19" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T19" s="34" t="s">
         <v>156</v>
@@ -2622,13 +2616,13 @@
         <v>19</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R20" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S20" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T20" s="34" t="s">
         <v>157</v>
@@ -2675,13 +2669,13 @@
         <v>19</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R21" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T21" s="34" t="s">
         <v>161</v>
@@ -2728,13 +2722,13 @@
         <v>19</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R22" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T22" s="34" t="s">
         <v>163</v>
@@ -2781,13 +2775,13 @@
         <v>19</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R23" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T23" s="34" t="s">
         <v>165</v>
@@ -2843,16 +2837,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S24" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S24" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="T24" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2898,16 +2892,16 @@
         <v>10</v>
       </c>
       <c r="R25" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S25" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>170</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2953,16 +2947,16 @@
         <v>10</v>
       </c>
       <c r="R26" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S26" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="T26" s="34" t="s">
         <v>172</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2973,7 +2967,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H27" s="21">
         <v>25</v>
@@ -2982,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -2997,16 +2991,16 @@
         <v>20</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R27" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S27" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="T27" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="T27" s="34" t="s">
-        <v>205</v>
       </c>
       <c r="U27" s="32"/>
     </row>
@@ -3018,7 +3012,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3027,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3042,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="Q28" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R28" s="33" t="s">
         <v>15</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U28" s="32"/>
     </row>
@@ -3098,16 +3092,16 @@
         <v>10</v>
       </c>
       <c r="R29" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S29" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="T29" s="34" t="s">
         <v>174</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3155,16 +3149,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="S30" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="S30" s="32" t="s">
-        <v>221</v>
-      </c>
       <c r="T30" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3210,16 +3204,16 @@
         <v>10</v>
       </c>
       <c r="R31" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S31" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="S31" s="32" t="s">
+      <c r="T31" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="U31" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="T31" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="U31" s="32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3265,16 +3259,16 @@
         <v>10</v>
       </c>
       <c r="R32" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S32" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="S32" s="32" t="s">
-        <v>199</v>
       </c>
       <c r="T32" s="34" t="s">
         <v>178</v>
       </c>
       <c r="U32" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3324,16 +3318,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T33" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3381,16 +3375,16 @@
         <v>10</v>
       </c>
       <c r="R34" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="S34" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="T34" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="U34" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="T34" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="U34" s="32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3409,7 +3403,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H35" s="21">
         <v>33</v>
@@ -3418,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3427,29 +3421,25 @@
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="32">
-        <v>6</v>
+      <c r="Q35" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="R35" s="33" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="T35" s="36" t="s">
-        <v>228</v>
+        <v>203</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3535,7 +3525,7 @@
         <v>33</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P37" s="30" t="s">
         <v>19</v>
@@ -3544,16 +3534,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S37" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S37" s="32" t="s">
+      <c r="T37" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="T37" s="36" t="s">
+      <c r="U37" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3586,7 +3576,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P38" s="30" t="s">
         <v>20</v>
@@ -3595,16 +3585,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="S38" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="S38" s="32" t="s">
-        <v>214</v>
-      </c>
       <c r="T38" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3710,7 +3700,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="5"/>
       <c r="J43" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
@@ -3735,7 +3725,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="5"/>
       <c r="J44" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>Edgar Josué Malagón Montaña</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +31,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Edgar Josué Malagón Montaña:</t>
         </r>
@@ -45,14 +40,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Falta la descripción y comentarios del recurso</t>
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0" shapeId="0">
+    <comment ref="N10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Edgar Josué Malagón Montaña:</t>
         </r>
@@ -69,14 +64,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Qué tipo de motor se recomienda.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Edgar Josué Malagón Montaña:</t>
         </r>
@@ -93,14 +88,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 En el cuaderno se habla de rectas paralelas y perpendiculares</t>
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0">
+    <comment ref="H28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Edgar Josué Malagón Montaña:</t>
         </r>
@@ -117,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 proqué no se numeran</t>
@@ -129,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -753,18 +748,6 @@
     <t>Introducción a las funciones y gráficas</t>
   </si>
   <si>
-    <t>Las gráficas de las funciones lineales</t>
-  </si>
-  <si>
-    <t>Practica la representación de funciones lineales</t>
-  </si>
-  <si>
-    <t>Practica funciones afines</t>
-  </si>
-  <si>
-    <t>Clasifica las funciones afines</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las funciones cuadráticas</t>
   </si>
   <si>
@@ -850,6 +833,33 @@
   </si>
   <si>
     <t>Actividad para practica la representación de rectas y parábolas con Geogebra</t>
+  </si>
+  <si>
+    <t>MT_09_10</t>
+  </si>
+  <si>
+    <t>MTC</t>
+  </si>
+  <si>
+    <t>Las gráficas de las funciones lineales y afines</t>
+  </si>
+  <si>
+    <t>MTC_09_10</t>
+  </si>
+  <si>
+    <t>MTP</t>
+  </si>
+  <si>
+    <t>MTP_09_10</t>
+  </si>
+  <si>
+    <t>Practica la ecuación general de la recta</t>
+  </si>
+  <si>
+    <t>Practica la ecuación explícita de la recta</t>
+  </si>
+  <si>
+    <t>Representación de funciones con GeoGebra</t>
   </si>
 </sst>
 </file>
@@ -898,14 +908,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1062,7 +1072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1085,7 +1095,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1137,15 +1146,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1156,34 +1156,16 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,6 +1206,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,7 +1312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1320,7 +1347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1531,9 +1558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27:U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,183 +1582,183 @@
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" style="68" customWidth="1"/>
+    <col min="20" max="20" width="45" style="68" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:22" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="31"/>
-    </row>
-    <row r="2" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="28" t="s">
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="31"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="30"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="D3" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="37" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="32" t="s">
+      <c r="S3" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="U3" s="32"/>
+      <c r="U3" s="31"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="17" t="s">
-        <v>228</v>
+      <c r="J4" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1746,51 +1773,51 @@
       <c r="O4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="32">
+      <c r="Q4" s="31">
         <v>6</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>215</v>
+      <c r="R4" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T4" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>229</v>
+      <c r="J5" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1799,52 +1826,52 @@
         <v>8</v>
       </c>
       <c r="M5" s="8"/>
-      <c r="N5" s="29"/>
+      <c r="N5" s="28"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="31">
         <v>6</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="R5" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>218</v>
+      <c r="T5" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>130</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -1860,50 +1887,50 @@
       <c r="O6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <v>6</v>
       </c>
-      <c r="R6" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>222</v>
+      <c r="R6" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>5</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
@@ -1919,53 +1946,53 @@
       <c r="O7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="31">
         <v>6</v>
       </c>
-      <c r="R7" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>215</v>
+      <c r="R7" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S7" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T7" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G8" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="29">
         <v>6</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>232</v>
+      <c r="J8" s="16" t="s">
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -1980,95 +2007,103 @@
       <c r="O8" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="31">
         <v>6</v>
       </c>
-      <c r="R8" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="U8" s="32" t="s">
-        <v>215</v>
+      <c r="R8" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S8" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="12"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>7</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="40" t="s">
+      <c r="I9" s="36"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="P9" s="39" t="s">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="P9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="35">
         <v>10</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="U9" s="35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>8</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
@@ -2082,48 +2117,50 @@
       <c r="O10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R10" s="33" t="s">
+      <c r="Q10" s="31">
+        <v>10</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S10" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2135,48 +2172,50 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R11" s="33" t="s">
+      <c r="Q11" s="31">
+        <v>10</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T11" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>144</v>
       </c>
       <c r="K12" s="7" t="s">
@@ -2188,48 +2227,50 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R12" s="33" t="s">
+      <c r="Q12" s="31">
+        <v>10</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S12" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T12" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T12" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>11</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2241,48 +2282,50 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9"/>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R13" s="33" t="s">
+      <c r="Q13" s="31">
+        <v>10</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S13" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T13" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="U13" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -2294,48 +2337,50 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R14" s="33" t="s">
+      <c r="Q14" s="31">
+        <v>10</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S14" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T14" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="U14" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T14" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="U14" s="32"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="7" t="s">
@@ -2347,48 +2392,50 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9"/>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R15" s="33" t="s">
+      <c r="Q15" s="31">
+        <v>10</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="S15" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T15" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T15" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="29">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
@@ -2400,48 +2447,50 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="9"/>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R16" s="33" t="s">
+      <c r="Q16" s="31">
+        <v>10</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S16" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T16" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="U16" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T16" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="U16" s="32"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
@@ -2453,48 +2502,50 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R17" s="33" t="s">
+      <c r="Q17" s="31">
+        <v>10</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S17" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T17" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="U17" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T17" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>16</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -2506,48 +2557,50 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="30" t="s">
+      <c r="P18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R18" s="33" t="s">
+      <c r="Q18" s="31">
+        <v>10</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S18" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T18" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
@@ -2559,48 +2612,50 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R19" s="33" t="s">
+      <c r="Q19" s="31">
+        <v>10</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S19" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T19" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T19" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
@@ -2612,48 +2667,50 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="30" t="s">
+      <c r="P20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R20" s="33" t="s">
+      <c r="Q20" s="31">
+        <v>10</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S20" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T20" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S20" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T20" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>19</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>162</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -2665,48 +2722,50 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="30" t="s">
+      <c r="P21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R21" s="33" t="s">
+      <c r="Q21" s="31">
+        <v>10</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S21" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T21" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S21" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T21" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="29">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="16" t="s">
         <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -2718,48 +2777,50 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="30" t="s">
+      <c r="P22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R22" s="33" t="s">
+      <c r="Q22" s="31">
+        <v>10</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="S22" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T22" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T22" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="U22" s="32"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
@@ -2771,50 +2832,52 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R23" s="33" t="s">
+      <c r="Q23" s="31">
+        <v>10</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="S23" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T23" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T23" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="U23" s="32"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
@@ -2830,50 +2893,50 @@
       <c r="O24" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="30" t="s">
+      <c r="P24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="31">
         <v>6</v>
       </c>
-      <c r="R24" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T24" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>215</v>
+      <c r="R24" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S24" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T24" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="U24" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2885,50 +2948,50 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="31">
         <v>10</v>
       </c>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S25" s="32" t="s">
+      <c r="S25" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T25" s="34" t="s">
+      <c r="T25" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="U25" s="32" t="s">
+      <c r="U25" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>24</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2940,43 +3003,51 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="30" t="s">
+      <c r="P26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="31">
         <v>10</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="S26" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T26" s="34" t="s">
+      <c r="T26" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="U26" s="32" t="s">
+      <c r="U26" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>25</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>238</v>
+      <c r="J27" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -2987,41 +3058,51 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="30" t="s">
+      <c r="P27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="R27" s="33" t="s">
+      <c r="Q27" s="31">
+        <v>10</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="S27" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T27" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="U27" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="T27" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="U27" s="32"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <v>26</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="17" t="s">
-        <v>239</v>
+      <c r="J28" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3032,48 +3113,48 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="32" t="s">
+      <c r="Q28" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S28" s="32" t="s">
+      <c r="S28" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="T28" s="34" t="s">
+      <c r="T28" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="U28" s="32"/>
+      <c r="U28" s="31"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="13"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="16" t="s">
         <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
@@ -3085,48 +3166,50 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="30" t="s">
+      <c r="P29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="31">
         <v>10</v>
       </c>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S29" s="32" t="s">
+      <c r="S29" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T29" s="34" t="s">
+      <c r="T29" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="U29" s="32" t="s">
+      <c r="U29" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="29">
         <v>28</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="16" t="s">
         <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
@@ -3142,50 +3225,50 @@
       <c r="O30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="P30" s="30" t="s">
+      <c r="P30" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="31">
         <v>6</v>
       </c>
-      <c r="R30" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="T30" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="U30" s="32" t="s">
-        <v>222</v>
+      <c r="R30" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="S30" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="T30" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>29</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="16" t="s">
         <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
@@ -3197,50 +3280,50 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="30" t="s">
+      <c r="P31" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="32">
+      <c r="Q31" s="31">
         <v>10</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S31" s="32" t="s">
+      <c r="S31" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T31" s="34" t="s">
+      <c r="T31" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="U31" s="32" t="s">
+      <c r="U31" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="13"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="16" t="s">
         <v>179</v>
       </c>
       <c r="K32" s="7" t="s">
@@ -3252,50 +3335,50 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="30" t="s">
+      <c r="P32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="32">
+      <c r="Q32" s="31">
         <v>10</v>
       </c>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="32" t="s">
+      <c r="S32" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="U32" s="32" t="s">
+      <c r="U32" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>31</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="16" t="s">
         <v>181</v>
       </c>
       <c r="K33" s="7" t="s">
@@ -3311,52 +3394,52 @@
       <c r="O33" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="32">
+      <c r="Q33" s="31">
         <v>6</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S33" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="S33" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="T33" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="U33" s="32" t="s">
-        <v>218</v>
+      <c r="T33" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="U33" s="31" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="29">
         <v>32</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="16" t="s">
         <v>186</v>
       </c>
       <c r="K34" s="7" t="s">
@@ -3368,51 +3451,51 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="30" t="s">
+      <c r="P34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="32">
+      <c r="Q34" s="31">
         <v>10</v>
       </c>
-      <c r="R34" s="33" t="s">
+      <c r="R34" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S34" s="32" t="s">
+      <c r="S34" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="T34" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="U34" s="32" t="s">
+      <c r="T34" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="U34" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="E35" s="13"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" s="21">
+      <c r="G35" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="20">
         <v>33</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="17" t="s">
-        <v>237</v>
+      <c r="J35" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3423,50 +3506,50 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="30" t="s">
+      <c r="P35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="32" t="s">
+      <c r="Q35" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="R35" s="33" t="s">
+      <c r="R35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S35" s="32" t="s">
+      <c r="S35" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="T35" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="U35" s="32" t="s">
-        <v>215</v>
+      <c r="T35" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="U35" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="13"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="29">
         <v>34</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="16" t="s">
         <v>189</v>
       </c>
       <c r="K36" s="7" t="s">
@@ -3478,40 +3561,40 @@
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="32"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="31"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="13"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="16" t="s">
         <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
@@ -3527,42 +3610,50 @@
       <c r="O37" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="P37" s="30" t="s">
+      <c r="P37" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="32">
+      <c r="Q37" s="31">
         <v>6</v>
       </c>
-      <c r="R37" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S37" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T37" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>215</v>
+      <c r="R37" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S37" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T37" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="U37" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="12"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="29">
         <v>36</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>193</v>
       </c>
       <c r="K38" s="7" t="s">
@@ -3578,105 +3669,105 @@
       <c r="O38" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="P38" s="30" t="s">
+      <c r="P38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="32">
+      <c r="Q38" s="31">
         <v>6</v>
       </c>
-      <c r="R38" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="S38" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="T38" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="U38" s="32" t="s">
-        <v>215</v>
+      <c r="R38" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="S38" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="T38" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="U38" s="31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="16"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="9"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="7"/>
       <c r="L39" s="6"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="32"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="31"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="16"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="9"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="16"/>
       <c r="K40" s="7"/>
       <c r="L40" s="6"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="32"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="31"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="16"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="9"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="16"/>
       <c r="K41" s="7"/>
       <c r="L41" s="6"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="32"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="31"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="16"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="9"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="17"/>
+      <c r="J42" s="16"/>
       <c r="K42" s="7"/>
       <c r="L42" s="6"/>
       <c r="M42" s="8"/>
@@ -3685,22 +3776,22 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="12"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="63"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="9"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="17" t="s">
-        <v>233</v>
+      <c r="J43" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
@@ -3710,22 +3801,22 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="12"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="63"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="9"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="17" t="s">
-        <v>234</v>
+      <c r="J44" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
@@ -3735,21 +3826,21 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="12"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="63"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="9"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="16"/>
       <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="8"/>
@@ -3758,21 +3849,21 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="12"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="63"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="9"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="7"/>
       <c r="L46" s="6"/>
       <c r="M46" s="8"/>
@@ -3781,21 +3872,21 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="12"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="63"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="9"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="16"/>
       <c r="K47" s="7"/>
       <c r="L47" s="6"/>
       <c r="M47" s="8"/>
@@ -3804,21 +3895,21 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="12"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="63"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="12"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="9"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="17"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="7"/>
       <c r="L48" s="6"/>
       <c r="M48" s="8"/>
@@ -3827,21 +3918,21 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="12"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="63"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="9"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="17"/>
+      <c r="J49" s="16"/>
       <c r="K49" s="7"/>
       <c r="L49" s="6"/>
       <c r="M49" s="8"/>
@@ -3850,21 +3941,21 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="12"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="63"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="12"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="9"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="7"/>
       <c r="L50" s="6"/>
       <c r="M50" s="8"/>
@@ -3873,21 +3964,21 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="12"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="63"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="9"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="17"/>
+      <c r="J51" s="16"/>
       <c r="K51" s="7"/>
       <c r="L51" s="6"/>
       <c r="M51" s="8"/>
@@ -3896,21 +3987,21 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="12"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="63"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="9"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="17"/>
+      <c r="J52" s="16"/>
       <c r="K52" s="7"/>
       <c r="L52" s="6"/>
       <c r="M52" s="8"/>
@@ -3919,21 +4010,21 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="12"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="63"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="12"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="9"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="17"/>
+      <c r="J53" s="16"/>
       <c r="K53" s="7"/>
       <c r="L53" s="6"/>
       <c r="M53" s="8"/>
@@ -3942,21 +4033,21 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="12"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="63"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="9"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="17"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="7"/>
       <c r="L54" s="6"/>
       <c r="M54" s="8"/>
@@ -3965,21 +4056,21 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="12"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="63"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="9"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="17"/>
+      <c r="J55" s="16"/>
       <c r="K55" s="7"/>
       <c r="L55" s="6"/>
       <c r="M55" s="8"/>
@@ -3988,21 +4079,21 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="12"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="63"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="12"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="9"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="7"/>
       <c r="L56" s="6"/>
       <c r="M56" s="8"/>
@@ -4011,21 +4102,21 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="12"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="63"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="9"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="17"/>
+      <c r="J57" s="16"/>
       <c r="K57" s="7"/>
       <c r="L57" s="6"/>
       <c r="M57" s="8"/>
@@ -4034,21 +4125,21 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="12"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="63"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="9"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="17"/>
+      <c r="J58" s="16"/>
       <c r="K58" s="7"/>
       <c r="L58" s="6"/>
       <c r="M58" s="8"/>
@@ -4057,21 +4148,21 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="12"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="63"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="9"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="17"/>
+      <c r="J59" s="16"/>
       <c r="K59" s="7"/>
       <c r="L59" s="6"/>
       <c r="M59" s="8"/>
@@ -4080,21 +4171,21 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="12"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="63"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="12"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="9"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="17"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="7"/>
       <c r="L60" s="6"/>
       <c r="M60" s="8"/>
@@ -4103,21 +4194,21 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="12"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="63"/>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="12"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="9"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="17"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="7"/>
       <c r="L61" s="6"/>
       <c r="M61" s="8"/>
@@ -4126,21 +4217,21 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="12"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="63"/>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="9"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="17"/>
+      <c r="J62" s="16"/>
       <c r="K62" s="7"/>
       <c r="L62" s="6"/>
       <c r="M62" s="8"/>
@@ -4149,21 +4240,21 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="12"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="63"/>
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="9"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="17"/>
+      <c r="J63" s="16"/>
       <c r="K63" s="7"/>
       <c r="L63" s="6"/>
       <c r="M63" s="8"/>
@@ -4172,21 +4263,21 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="12"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="63"/>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="12"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="9"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="17"/>
+      <c r="J64" s="16"/>
       <c r="K64" s="7"/>
       <c r="L64" s="6"/>
       <c r="M64" s="8"/>
@@ -4195,21 +4286,21 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="12"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="63"/>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="13"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="9"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="16"/>
       <c r="K65" s="7"/>
       <c r="L65" s="6"/>
       <c r="M65" s="8"/>
@@ -4218,21 +4309,21 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="12"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="63"/>
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="13"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="12"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="9"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="17"/>
+      <c r="J66" s="16"/>
       <c r="K66" s="7"/>
       <c r="L66" s="6"/>
       <c r="M66" s="8"/>
@@ -4241,21 +4332,21 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="12"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="63"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="13"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="12"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="9"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="16"/>
       <c r="K67" s="7"/>
       <c r="L67" s="6"/>
       <c r="M67" s="8"/>
@@ -4264,21 +4355,21 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="12"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="63"/>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="12"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="9"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="17"/>
+      <c r="J68" s="16"/>
       <c r="K68" s="7"/>
       <c r="L68" s="6"/>
       <c r="M68" s="8"/>
@@ -4287,21 +4378,21 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="12"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="63"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="13"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="12"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="9"/>
       <c r="I69" s="5"/>
-      <c r="J69" s="17"/>
+      <c r="J69" s="16"/>
       <c r="K69" s="7"/>
       <c r="L69" s="6"/>
       <c r="M69" s="8"/>
@@ -4310,21 +4401,21 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="12"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="63"/>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="13"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="9"/>
       <c r="I70" s="5"/>
-      <c r="J70" s="17"/>
+      <c r="J70" s="16"/>
       <c r="K70" s="7"/>
       <c r="L70" s="6"/>
       <c r="M70" s="8"/>
@@ -4333,21 +4424,21 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="12"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="63"/>
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="13"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="12"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="9"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="17"/>
+      <c r="J71" s="16"/>
       <c r="K71" s="7"/>
       <c r="L71" s="6"/>
       <c r="M71" s="8"/>
@@ -4356,21 +4447,21 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="12"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="63"/>
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="9"/>
       <c r="I72" s="5"/>
-      <c r="J72" s="17"/>
+      <c r="J72" s="16"/>
       <c r="K72" s="7"/>
       <c r="L72" s="6"/>
       <c r="M72" s="8"/>
@@ -4379,8 +4470,8 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="12"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="63"/>
       <c r="U72" s="10"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4745,10 +4836,13 @@
     <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4763,12 +4857,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -727,15 +727,9 @@
     <t>MT_10_07</t>
   </si>
   <si>
-    <t>¿Qué sabes de la grafica de una función cuadrática?</t>
-  </si>
-  <si>
     <t>La dependencia lineal</t>
   </si>
   <si>
-    <t>3° ESO</t>
-  </si>
-  <si>
     <t>Las funciones y gráficas</t>
   </si>
   <si>
@@ -766,9 +760,6 @@
     <t>Recursos M aleatorios y diaporama F1</t>
   </si>
   <si>
-    <t>Recurso MT_10_06_01-01</t>
-  </si>
-  <si>
     <t>RM_01_02_CO</t>
   </si>
   <si>
@@ -860,6 +851,15 @@
   </si>
   <si>
     <t>Representación de funciones con GeoGebra</t>
+  </si>
+  <si>
+    <t>Practica la representación de rectas y parábolas con GeoGebra</t>
+  </si>
+  <si>
+    <t>Competencias: práctica de las ecuaciones de la recta</t>
+  </si>
+  <si>
+    <t>Diaporama F1-02</t>
   </si>
 </sst>
 </file>
@@ -1156,6 +1156,27 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,44 +1234,23 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,9 +1558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27:U27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R38" sqref="Q36:R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,102 +1582,102 @@
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="68" customWidth="1"/>
-    <col min="20" max="20" width="45" style="68" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" style="43" customWidth="1"/>
+    <col min="20" max="20" width="56.5703125" style="43" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="61" t="s">
         <v>89</v>
       </c>
       <c r="V1" s="30"/>
     </row>
     <row r="2" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="55"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="30"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>123</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20"/>
@@ -1719,19 +1719,21 @@
       <c r="P3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>202</v>
+      <c r="Q3" s="31">
+        <v>10</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="U3" s="31"/>
+        <v>234</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -1758,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>20</v>
@@ -1780,16 +1782,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T4" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="U4" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T4" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1817,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -1835,16 +1837,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S5" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="T5" s="64" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>219</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1894,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="U6" s="31" t="s">
         <v>215</v>
-      </c>
-      <c r="S6" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1953,16 +1955,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T7" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="S7" s="62" t="s">
+      <c r="U7" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T7" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1983,7 +1985,7 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H8" s="29">
         <v>6</v>
@@ -1992,7 +1994,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
@@ -2014,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S8" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="U8" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2042,7 +2044,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H9" s="20">
         <v>7</v>
@@ -2058,7 +2060,7 @@
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P9" s="35" t="s">
         <v>20</v>
@@ -2069,11 +2071,11 @@
       <c r="R9" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="65" t="s">
+      <c r="S9" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="T9" s="65" t="s">
-        <v>201</v>
+      <c r="T9" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="U9" s="35" t="s">
         <v>199</v>
@@ -2126,14 +2128,14 @@
       <c r="R10" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S10" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T10" s="66" t="s">
+      <c r="S10" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T10" s="41" t="s">
         <v>138</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2179,16 +2181,16 @@
         <v>10</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S11" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T11" s="66" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2236,14 +2238,14 @@
       <c r="R12" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S12" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T12" s="66" t="s">
+      <c r="S12" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12" s="41" t="s">
         <v>141</v>
       </c>
       <c r="U12" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2291,14 +2293,14 @@
       <c r="R13" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S13" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T13" s="66" t="s">
+      <c r="S13" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T13" s="41" t="s">
         <v>146</v>
       </c>
       <c r="U13" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2346,14 +2348,14 @@
       <c r="R14" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S14" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T14" s="63" t="s">
+      <c r="S14" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T14" s="38" t="s">
         <v>147</v>
       </c>
       <c r="U14" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2399,16 +2401,16 @@
         <v>10</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S15" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T15" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T15" s="38" t="s">
         <v>149</v>
       </c>
       <c r="U15" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2454,16 +2456,16 @@
         <v>10</v>
       </c>
       <c r="R16" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="S16" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T16" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" s="38" t="s">
         <v>151</v>
       </c>
       <c r="U16" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2511,14 +2513,14 @@
       <c r="R17" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S17" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T17" s="63" t="s">
-        <v>242</v>
+      <c r="S17" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>239</v>
       </c>
       <c r="U17" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2566,14 +2568,14 @@
       <c r="R18" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S18" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T18" s="63" t="s">
+      <c r="S18" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T18" s="38" t="s">
         <v>155</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2619,16 +2621,16 @@
         <v>10</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="S19" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T19" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="38" t="s">
         <v>156</v>
       </c>
       <c r="U19" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2674,16 +2676,16 @@
         <v>10</v>
       </c>
       <c r="R20" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T20" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="S20" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T20" s="63" t="s">
-        <v>243</v>
-      </c>
       <c r="U20" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2729,16 +2731,16 @@
         <v>10</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="S21" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T21" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T21" s="38" t="s">
         <v>161</v>
       </c>
       <c r="U21" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2784,16 +2786,16 @@
         <v>10</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="S22" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T22" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T22" s="38" t="s">
         <v>163</v>
       </c>
       <c r="U22" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2841,14 +2843,14 @@
       <c r="R23" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S23" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T23" s="63" t="s">
+      <c r="S23" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T23" s="38" t="s">
         <v>165</v>
       </c>
       <c r="U23" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2900,16 +2902,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S24" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="U24" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T24" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2957,10 +2959,10 @@
       <c r="R25" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S25" s="62" t="s">
+      <c r="S25" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T25" s="63" t="s">
+      <c r="T25" s="38" t="s">
         <v>170</v>
       </c>
       <c r="U25" s="31" t="s">
@@ -3012,10 +3014,10 @@
       <c r="R26" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S26" s="62" t="s">
+      <c r="S26" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T26" s="63" t="s">
+      <c r="T26" s="38" t="s">
         <v>172</v>
       </c>
       <c r="U26" s="31" t="s">
@@ -3038,7 +3040,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="9"/>
       <c r="G27" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H27" s="20">
         <v>25</v>
@@ -3047,7 +3049,7 @@
         <v>19</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -3065,16 +3067,16 @@
         <v>10</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S27" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T27" s="63" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="U27" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3093,7 +3095,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="9"/>
       <c r="G28" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H28" s="29">
         <v>26</v>
@@ -3102,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
@@ -3116,19 +3118,21 @@
       <c r="P28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="31" t="s">
-        <v>202</v>
+      <c r="Q28" s="31">
+        <v>10</v>
       </c>
       <c r="R28" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T28" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="U28" s="31"/>
+        <v>234</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T28" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
@@ -3175,10 +3179,10 @@
       <c r="R29" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S29" s="62" t="s">
+      <c r="S29" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T29" s="63" t="s">
+      <c r="T29" s="38" t="s">
         <v>174</v>
       </c>
       <c r="U29" s="31" t="s">
@@ -3232,16 +3236,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="T30" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="U30" s="31" t="s">
         <v>215</v>
-      </c>
-      <c r="S30" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="T30" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="U30" s="31" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3287,16 +3291,16 @@
         <v>10</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S31" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="T31" s="63" t="s">
-        <v>200</v>
+        <v>234</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T31" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="U31" s="31" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3344,10 +3348,10 @@
       <c r="R32" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S32" s="62" t="s">
+      <c r="S32" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T32" s="63" t="s">
+      <c r="T32" s="38" t="s">
         <v>178</v>
       </c>
       <c r="U32" s="31" t="s">
@@ -3401,16 +3405,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S33" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="T33" s="67" t="s">
-        <v>222</v>
+        <v>206</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="42" t="s">
+        <v>244</v>
       </c>
       <c r="U33" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3460,11 +3464,11 @@
       <c r="R34" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="S34" s="62" t="s">
+      <c r="S34" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T34" s="63" t="s">
-        <v>207</v>
+      <c r="T34" s="38" t="s">
+        <v>205</v>
       </c>
       <c r="U34" s="31" t="s">
         <v>199</v>
@@ -3486,7 +3490,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="9"/>
       <c r="G35" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H35" s="20">
         <v>33</v>
@@ -3495,7 +3499,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>20</v>
@@ -3509,20 +3513,20 @@
       <c r="P35" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="31" t="s">
-        <v>202</v>
+      <c r="Q35" s="31">
+        <v>10</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S35" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="T35" s="63" t="s">
-        <v>232</v>
+        <v>197</v>
+      </c>
+      <c r="S35" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="T35" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="U35" s="31" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3566,8 +3570,8 @@
       </c>
       <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="63"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="38"/>
       <c r="U36" s="31"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3617,16 +3621,16 @@
         <v>6</v>
       </c>
       <c r="R37" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="S37" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T37" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="S37" s="62" t="s">
+      <c r="U37" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T37" s="67" t="s">
-        <v>210</v>
-      </c>
-      <c r="U37" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3676,16 +3680,16 @@
         <v>6</v>
       </c>
       <c r="R38" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S38" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="S38" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="T38" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="U38" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="T38" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="U38" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3707,8 +3711,8 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="31"/>
       <c r="R39" s="32"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="63"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="38"/>
       <c r="U39" s="31"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3730,8 +3734,8 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="31"/>
       <c r="R40" s="32"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="63"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="38"/>
       <c r="U40" s="31"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3753,8 +3757,8 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="31"/>
       <c r="R41" s="32"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="63"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="38"/>
       <c r="U41" s="31"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3776,8 +3780,8 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="63"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3791,7 +3795,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="5"/>
       <c r="J43" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
@@ -3801,8 +3805,8 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="63"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="38"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3816,7 +3820,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="5"/>
       <c r="J44" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
@@ -3826,8 +3830,8 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="63"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3849,8 +3853,8 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="63"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3872,8 +3876,8 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="63"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="38"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3895,8 +3899,8 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="63"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="38"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3918,8 +3922,8 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="63"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3941,8 +3945,8 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="63"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="38"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3964,8 +3968,8 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="63"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="38"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3987,8 +3991,8 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="63"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="38"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4010,8 +4014,8 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="63"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="38"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4033,8 +4037,8 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="63"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="38"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4056,8 +4060,8 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="63"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="38"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4079,8 +4083,8 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="63"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="38"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4102,8 +4106,8 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="63"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="38"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4125,8 +4129,8 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="63"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="38"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4148,8 +4152,8 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="63"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="38"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4171,8 +4175,8 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="63"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="38"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4194,8 +4198,8 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="63"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="38"/>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4217,8 +4221,8 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="63"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="38"/>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4240,8 +4244,8 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="63"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="38"/>
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4263,8 +4267,8 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="63"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="38"/>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4286,8 +4290,8 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="63"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="38"/>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4309,8 +4313,8 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="63"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="38"/>
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4332,8 +4336,8 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="63"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="38"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4355,8 +4359,8 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="63"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="38"/>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4378,8 +4382,8 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="63"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="38"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4401,8 +4405,8 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="63"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="38"/>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4424,8 +4428,8 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="63"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="38"/>
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4447,8 +4451,8 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="63"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="38"/>
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4470,8 +4474,8 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="63"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="38"/>
       <c r="U72" s="10"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -23,7 +28,7 @@
     <author>Edgar Josué Malagón Montaña</author>
   </authors>
   <commentList>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0">
+    <comment ref="N10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="247">
   <si>
     <t>Asignatura</t>
   </si>
@@ -544,9 +549,6 @@
     <t>Las funciones lineales</t>
   </si>
   <si>
-    <t>Interactivo para reconocer las características y la expresión de las funciones lineales</t>
-  </si>
-  <si>
     <t>Revisar que las gráficas correspondan a las ecuaciones dadas</t>
   </si>
   <si>
@@ -562,24 +564,15 @@
     <t>Actividad para practicar la representación de funciones lineales y afines</t>
   </si>
   <si>
-    <t>Ejercicios diseñados para repasar lo aprendido acerca de  las funciones lineales</t>
-  </si>
-  <si>
     <t>Practica las funciones afines</t>
   </si>
   <si>
     <t>Clasifica funciones afines</t>
   </si>
   <si>
-    <t>Actividad que permite clasificar funciones afines según ciertas condiciones</t>
-  </si>
-  <si>
     <t>Reconoce el tipo de cada función</t>
   </si>
   <si>
-    <t>Actividad que clasificar funciones según sean lineales, afines o proporcionales</t>
-  </si>
-  <si>
     <t>Conoce la ecuación de la recta que pasa por dos puntos</t>
   </si>
   <si>
@@ -598,24 +591,12 @@
     <t>Practica la ecuación continua de la recta</t>
   </si>
   <si>
-    <t>Practica la ecuación explícita de la retca</t>
-  </si>
-  <si>
     <t>Ejercicios que sirven para repasar lo aprendid acerca de la ecuación punto-pendiente de la recta</t>
   </si>
   <si>
-    <t>Ejercicios para repasar loa aprendido acerca de la ecuación continua de la recta</t>
-  </si>
-  <si>
-    <t>Actividades para practicar la ecuación explícita de la recta</t>
-  </si>
-  <si>
     <t>Rectas secantes y rectas paralelas</t>
   </si>
   <si>
-    <t>Actividad para repasar las definciones de rectas paralelas y perpendiculares analizando las pendientes correspondientes</t>
-  </si>
-  <si>
     <t>Indica la posición relativa de dos rectas</t>
   </si>
   <si>
@@ -625,15 +606,9 @@
     <t>Aplicaciones de las funciones lineales y afines</t>
   </si>
   <si>
-    <t>Actividad para identificar situaciones en las que se encuentran magnitudes relacionadas entre sí, mediante funciones lineales y afines</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las funciones lineales y afines</t>
   </si>
   <si>
-    <t>Actividades sobre Las funciones lineales</t>
-  </si>
-  <si>
     <t>Tomar algunas de las actividades sugeridas en los recursos 20, 21, 22 23 para organizar el recurso</t>
   </si>
   <si>
@@ -860,6 +835,42 @@
   </si>
   <si>
     <t>Diaporama F1-02</t>
+  </si>
+  <si>
+    <t>Interactivo para reconocer las características de las funciones lineales</t>
+  </si>
+  <si>
+    <t>Actividad para repasar lo aprendido acerca de  las funciones lineales</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar funciones afines según ciertas condiciones</t>
+  </si>
+  <si>
+    <t>Actividad para clasificar funciones según sean lineales, afines o proporcionales</t>
+  </si>
+  <si>
+    <t>Actividades sobre Las funciones lineales y afines</t>
+  </si>
+  <si>
+    <t>Aplica las funciones lineales y afines</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar las funciones  lineales y afines</t>
+  </si>
+  <si>
+    <t>quitar las coincidentes</t>
+  </si>
+  <si>
+    <t>Identifica las características de rectas perpendiculares y paralelas</t>
+  </si>
+  <si>
+    <t>Actividad para repasar las características de rectas paralelas y perpendiculares</t>
+  </si>
+  <si>
+    <t>Actividad para practicar la ecuación explícita de la recta</t>
+  </si>
+  <si>
+    <t>Actividad para practica lo aprendido acerca de la ecuación continua de la recta</t>
   </si>
 </sst>
 </file>
@@ -993,13 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1109,33 +1120,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1146,14 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,10 +1153,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,16 +1162,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1228,29 +1237,57 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1347,7 +1384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1558,9 +1595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R38" sqref="Q36:R38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,9 +1606,9 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="74.5703125" customWidth="1"/>
@@ -1582,32 +1619,32 @@
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="43" customWidth="1"/>
-    <col min="20" max="20" width="56.5703125" style="43" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" style="33" customWidth="1"/>
+    <col min="20" max="20" width="56.5703125" style="33" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:22" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="44" t="s">
@@ -1616,69 +1653,69 @@
       <c r="I1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
+      <c r="V1" s="24"/>
+    </row>
+    <row r="2" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="53"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="27" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="30"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1690,49 +1727,49 @@
       <c r="C3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="33" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="25">
         <v>10</v>
       </c>
-      <c r="R3" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T3" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>236</v>
+      <c r="R3" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1745,53 +1782,53 @@
       <c r="C4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="65">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="25">
         <v>6</v>
       </c>
-      <c r="R4" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>209</v>
+      <c r="R4" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1804,49 +1841,49 @@
       <c r="C5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>3</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="29" t="s">
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="25">
         <v>6</v>
       </c>
-      <c r="R5" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="T5" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="U5" s="31" t="s">
-        <v>211</v>
+      <c r="R5" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1859,53 +1896,53 @@
       <c r="C6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="65">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="25">
         <v>6</v>
       </c>
-      <c r="R6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>215</v>
+      <c r="R6" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1918,53 +1955,53 @@
       <c r="C7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="68">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="M7" s="69"/>
+      <c r="N7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="25">
         <v>6</v>
       </c>
-      <c r="R7" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S7" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="T7" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>209</v>
+      <c r="R7" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -1977,55 +2014,55 @@
       <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="F8" s="13"/>
+      <c r="G8" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="65">
         <v>6</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="M8" s="66"/>
+      <c r="N8" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="25">
         <v>6</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T8" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="S8" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="T8" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>209</v>
+      <c r="U8" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2038,47 +2075,47 @@
       <c r="C9" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="68">
         <v>7</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="36" t="s">
+      <c r="I9" s="69"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="P9" s="35" t="s">
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="27">
         <v>10</v>
       </c>
-      <c r="R9" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="S9" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="T9" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="U9" s="35" t="s">
-        <v>199</v>
+      <c r="R9" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,51 +2128,51 @@
       <c r="C10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="71">
         <v>8</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="61">
         <v>10</v>
       </c>
-      <c r="R10" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S10" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T10" s="41" t="s">
+      <c r="R10" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="31" t="s">
-        <v>233</v>
+      <c r="U10" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2148,49 +2185,49 @@
       <c r="C11" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="15" t="s">
-        <v>142</v>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="60" t="s">
+        <v>141</v>
       </c>
       <c r="H11" s="20">
         <v>9</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="29" t="s">
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="61">
         <v>10</v>
       </c>
-      <c r="R11" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S11" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T11" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>236</v>
+      <c r="R11" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="S11" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T11" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="U11" s="61" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2203,49 +2240,49 @@
       <c r="C12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="71">
         <v>10</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="29" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="61">
         <v>10</v>
       </c>
-      <c r="R12" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S12" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T12" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>233</v>
+      <c r="R12" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T12" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2258,49 +2295,49 @@
       <c r="C13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="15" t="s">
-        <v>146</v>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="60" t="s">
+        <v>144</v>
       </c>
       <c r="H13" s="20">
         <v>11</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="29" t="s">
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="61">
         <v>10</v>
       </c>
-      <c r="R13" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S13" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T13" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" s="31" t="s">
-        <v>233</v>
+      <c r="R13" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T13" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2313,49 +2350,49 @@
       <c r="C14" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="71">
         <v>12</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="29" t="s">
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="61">
         <v>10</v>
       </c>
-      <c r="R14" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S14" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T14" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="U14" s="31" t="s">
-        <v>233</v>
+      <c r="R14" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T14" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,49 +2405,49 @@
       <c r="C15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="15" t="s">
-        <v>149</v>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="60" t="s">
+        <v>146</v>
       </c>
       <c r="H15" s="20">
         <v>13</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="29" t="s">
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="61">
         <v>10</v>
       </c>
-      <c r="R15" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T15" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="U15" s="31" t="s">
-        <v>236</v>
+      <c r="R15" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T15" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
@@ -2423,49 +2460,49 @@
       <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="71">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="72" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="29" t="s">
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="61">
         <v>10</v>
       </c>
-      <c r="R16" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S16" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T16" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="U16" s="31" t="s">
-        <v>238</v>
+      <c r="R16" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="S16" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T16" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="U16" s="61" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2478,49 +2515,49 @@
       <c r="C17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="15" t="s">
-        <v>153</v>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="60" t="s">
+        <v>149</v>
       </c>
       <c r="H17" s="20">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="29" t="s">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="61">
         <v>10</v>
       </c>
-      <c r="R17" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T17" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="U17" s="31" t="s">
-        <v>233</v>
+      <c r="R17" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T17" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="U17" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2533,49 +2570,49 @@
       <c r="C18" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="29">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="71">
         <v>16</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="29" t="s">
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="61">
         <v>10</v>
       </c>
-      <c r="R18" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S18" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T18" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="31" t="s">
-        <v>233</v>
+      <c r="R18" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T18" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="U18" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2588,49 +2625,49 @@
       <c r="C19" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="15" t="s">
-        <v>156</v>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="60" t="s">
+        <v>152</v>
       </c>
       <c r="H19" s="20">
         <v>17</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K19" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="29" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="61">
         <v>10</v>
       </c>
-      <c r="R19" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S19" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T19" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="U19" s="31" t="s">
-        <v>238</v>
+      <c r="R19" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="S19" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T19" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="61" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2643,49 +2680,49 @@
       <c r="C20" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="71">
         <v>18</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="29" t="s">
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="61">
         <v>10</v>
       </c>
-      <c r="R20" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>238</v>
+      <c r="R20" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="S20" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T20" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" s="61" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2698,49 +2735,49 @@
       <c r="C21" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="15" t="s">
-        <v>161</v>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="60" t="s">
+        <v>243</v>
       </c>
       <c r="H21" s="20">
         <v>19</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="29" t="s">
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="61">
         <v>10</v>
       </c>
-      <c r="R21" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S21" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T21" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="U21" s="31" t="s">
-        <v>238</v>
+      <c r="R21" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="S21" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T21" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="U21" s="61" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,49 +2790,51 @@
       <c r="C22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="71">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="29" t="s">
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="61">
         <v>10</v>
       </c>
-      <c r="R22" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T22" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="U22" s="31" t="s">
-        <v>238</v>
+      <c r="R22" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="S22" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T22" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="U22" s="61" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2808,49 +2847,49 @@
       <c r="C23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="15" t="s">
-        <v>165</v>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="60" t="s">
+        <v>240</v>
       </c>
       <c r="H23" s="20">
         <v>21</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="29" t="s">
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="61">
         <v>10</v>
       </c>
-      <c r="R23" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T23" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="U23" s="31" t="s">
-        <v>233</v>
+      <c r="R23" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="S23" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="T23" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2863,55 +2902,55 @@
       <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="29">
+      <c r="F24" s="16"/>
+      <c r="G24" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="71">
         <v>22</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="72" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="K24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8" t="s">
+      <c r="M24" s="72"/>
+      <c r="N24" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" s="29" t="s">
+      <c r="O24" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="25">
         <v>6</v>
       </c>
-      <c r="R24" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S24" s="37" t="s">
+      <c r="R24" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T24" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="T24" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="U24" s="31" t="s">
-        <v>209</v>
+      <c r="U24" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2924,49 +2963,49 @@
       <c r="C25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="20">
+      <c r="D25" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="73">
         <v>23</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="29" t="s">
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="70">
         <v>10</v>
       </c>
-      <c r="R25" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S25" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T25" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="U25" s="31" t="s">
-        <v>199</v>
+      <c r="R25" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="T25" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="U25" s="70" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2979,49 +3018,49 @@
       <c r="C26" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="D26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="26">
         <v>24</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="J26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="29" t="s">
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="25">
         <v>10</v>
       </c>
-      <c r="R26" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T26" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="U26" s="31" t="s">
-        <v>199</v>
+      <c r="R26" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3034,49 +3073,49 @@
       <c r="C27" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="D27" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="68">
         <v>25</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>10</v>
+      </c>
+      <c r="R27" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T27" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="31">
-        <v>10</v>
-      </c>
-      <c r="R27" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T27" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="U27" s="31" t="s">
-        <v>236</v>
+      <c r="U27" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3089,49 +3128,49 @@
       <c r="C28" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H28" s="29">
+      <c r="D28" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="70">
         <v>26</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>10</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T28" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="31">
-        <v>10</v>
-      </c>
-      <c r="R28" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T28" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="U28" s="31" t="s">
-        <v>236</v>
+      <c r="U28" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3144,49 +3183,49 @@
       <c r="C29" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="20">
+      <c r="D29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="73">
         <v>27</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="J29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="29" t="s">
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="31">
+      <c r="Q29" s="25">
         <v>10</v>
       </c>
-      <c r="R29" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S29" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T29" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="U29" s="31" t="s">
-        <v>199</v>
+      <c r="R29" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="U29" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3199,53 +3238,53 @@
       <c r="C30" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="D30" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="70">
         <v>28</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="P30" s="29" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="25">
         <v>6</v>
       </c>
-      <c r="R30" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S30" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="T30" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="U30" s="31" t="s">
-        <v>215</v>
+      <c r="R30" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="U30" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3258,49 +3297,49 @@
       <c r="C31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="20">
+      <c r="D31" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="73">
         <v>29</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="7" t="s">
+      <c r="J31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="29" t="s">
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="31">
+      <c r="Q31" s="25">
         <v>10</v>
       </c>
-      <c r="R31" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="S31" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T31" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="U31" s="31" t="s">
-        <v>236</v>
+      <c r="R31" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T31" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="U31" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3313,49 +3352,49 @@
       <c r="C32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H32" s="29">
+      <c r="D32" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="26">
         <v>30</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="J32" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="29" t="s">
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="25">
         <v>10</v>
       </c>
-      <c r="R32" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S32" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T32" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="U32" s="31" t="s">
-        <v>199</v>
+      <c r="R32" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T32" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3368,53 +3407,53 @@
       <c r="C33" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="20">
+      <c r="H33" s="68">
         <v>31</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="P33" s="29" t="s">
+      <c r="N33" s="69"/>
+      <c r="O33" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="31">
+      <c r="Q33" s="25">
         <v>6</v>
       </c>
-      <c r="R33" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S33" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="U33" s="31" t="s">
-        <v>211</v>
+      <c r="R33" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="T33" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="U33" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3427,51 +3466,51 @@
       <c r="C34" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H34" s="29">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="26">
         <v>32</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="J34" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="29" t="s">
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="25">
         <v>10</v>
       </c>
-      <c r="R34" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S34" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="T34" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="U34" s="31" t="s">
-        <v>199</v>
+      <c r="R34" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="U34" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3484,49 +3523,49 @@
       <c r="C35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="20">
+      <c r="D35" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="21">
         <v>33</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="J35" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="29" t="s">
+      <c r="O35" s="75"/>
+      <c r="P35" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="25">
         <v>10</v>
       </c>
-      <c r="R35" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="S35" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="T35" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="U35" s="31" t="s">
+      <c r="R35" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="T35" s="29" t="s">
         <v>233</v>
+      </c>
+      <c r="U35" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3539,40 +3578,40 @@
       <c r="C36" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="15" t="s">
+      <c r="D36" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="76">
         <v>34</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="K36" s="7" t="s">
+      <c r="J36" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="29" t="s">
+      <c r="O36" s="75"/>
+      <c r="P36" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="31"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="25"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
@@ -3584,53 +3623,53 @@
       <c r="C37" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" s="20">
+      <c r="D37" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="21">
         <v>35</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="J37" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="P37" s="29" t="s">
+      <c r="O37" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="P37" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="31">
+      <c r="Q37" s="25">
         <v>6</v>
       </c>
-      <c r="R37" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S37" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="T37" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="U37" s="31" t="s">
-        <v>209</v>
+      <c r="R37" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="S37" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T37" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="U37" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3643,53 +3682,53 @@
       <c r="C38" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="29">
+      <c r="D38" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="70">
         <v>36</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="J38" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8" t="s">
+      <c r="M38" s="69"/>
+      <c r="N38" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="O38" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="P38" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>6</v>
+      </c>
+      <c r="R38" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="P38" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="31">
-        <v>6</v>
-      </c>
-      <c r="R38" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="S38" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="T38" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="U38" s="31" t="s">
-        <v>209</v>
+      <c r="S38" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="U38" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3709,11 +3748,11 @@
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="31"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="25"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -3732,11 +3771,11 @@
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="31"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="25"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
@@ -3755,11 +3794,11 @@
       <c r="N41" s="8"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="31"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="25"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -3780,8 +3819,8 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="38"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="29"/>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3795,7 +3834,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="5"/>
       <c r="J43" s="16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="6"/>
@@ -3805,8 +3844,8 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="38"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29"/>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3820,7 +3859,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="5"/>
       <c r="J44" s="16" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="6"/>
@@ -3830,8 +3869,8 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="11"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="29"/>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3853,8 +3892,8 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="29"/>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3876,8 +3915,8 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="11"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="38"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="29"/>
       <c r="U46" s="10"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3899,8 +3938,8 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="11"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="38"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="29"/>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3922,8 +3961,8 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="11"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="38"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="29"/>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3945,8 +3984,8 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="11"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="38"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="29"/>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3968,8 +4007,8 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="11"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="38"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3991,8 +4030,8 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="11"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="38"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="29"/>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4014,8 +4053,8 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="11"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="38"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="29"/>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4037,8 +4076,8 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="38"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="29"/>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4060,8 +4099,8 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="38"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="29"/>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4083,8 +4122,8 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="38"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="29"/>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4106,8 +4145,8 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="38"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="29"/>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4129,8 +4168,8 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="38"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="29"/>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4152,8 +4191,8 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="11"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="38"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="29"/>
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4175,8 +4214,8 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="11"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="38"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="29"/>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4198,8 +4237,8 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="11"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="38"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4221,8 +4260,8 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="11"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="38"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="29"/>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4244,8 +4283,8 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="38"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="29"/>
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4267,8 +4306,8 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="38"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="29"/>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4290,8 +4329,8 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="38"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4313,8 +4352,8 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="38"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="29"/>
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4336,8 +4375,8 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="11"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="38"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="29"/>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4359,8 +4398,8 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="11"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="38"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="29"/>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4382,8 +4421,8 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="11"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="38"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="29"/>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4405,8 +4444,8 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="11"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="38"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="29"/>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4428,8 +4467,8 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="38"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="29"/>
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4451,8 +4490,8 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="38"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="29"/>
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4474,8 +4513,8 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="11"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="38"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="29"/>
       <c r="U72" s="10"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4841,12 +4880,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4861,6 +4894,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="249">
   <si>
     <t>Asignatura</t>
   </si>
@@ -621,9 +621,6 @@
     <t>La función polinómica de segundo grado</t>
   </si>
   <si>
-    <t>Simulador que sirve para trabajar las propiedades de la función axEXP2 y su representación gráfica</t>
-  </si>
-  <si>
     <t>Practica la representación de funciones cuadráticas</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t>¿Qué sabes de la gráfica de una función cuadrática?</t>
   </si>
   <si>
-    <t>Actividad para profundizar en el concepto de función cuadrática</t>
-  </si>
-  <si>
     <t>Calcula los vértices de las parábolas</t>
   </si>
   <si>
@@ -789,12 +783,6 @@
     <t>Interactivo que repasa el concepto de depemdencia lineal</t>
   </si>
   <si>
-    <t>Competencias: practica de las ecuaciones de una recta</t>
-  </si>
-  <si>
-    <t>Actividad que propone establecer las ecuaciones de las rectas que corresponden a las medianas de un triángulo. Relaciona pensamientos variacional y espacial</t>
-  </si>
-  <si>
     <t>Interactivo que muestra la representación de funiones lineales y cuadráticas</t>
   </si>
   <si>
@@ -871,6 +859,24 @@
   </si>
   <si>
     <t>Actividad para practica lo aprendido acerca de la ecuación continua de la recta</t>
+  </si>
+  <si>
+    <t>Simulador que sirve para trabajar las propiedades de la función y = ax^2 y su representación gráfica</t>
+  </si>
+  <si>
+    <t>Expresa lo que sabes de la gráfica de una función cuadrática</t>
+  </si>
+  <si>
+    <t>Actividad para expresar lo que sabes de la gráfica de una función cuadrática</t>
+  </si>
+  <si>
+    <t>Actividad para practicar las ecuaciones de una recta</t>
+  </si>
+  <si>
+    <t>Competencias: Practica de las ecuaciones de una recta</t>
+  </si>
+  <si>
+    <t>Interactivo para repasar el concepto de dependencia lineal</t>
   </si>
 </sst>
 </file>
@@ -1004,13 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,47 +1089,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1135,67 +1113,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,56 +1183,86 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1595,9 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,9 +1581,9 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
@@ -1619,2903 +1595,2907 @@
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="56.5703125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="22" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="24"/>
-    </row>
-    <row r="2" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="23" t="s">
+      <c r="V1" s="10"/>
+    </row>
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="24"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>10</v>
+      </c>
+      <c r="R3" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="U3" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="45">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="45">
+        <v>6</v>
+      </c>
+      <c r="R4" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="43">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>6</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="S5" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>6</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="43">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>6</v>
+      </c>
+      <c r="R7" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="S7" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="U7" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="45">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="19">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="19" t="s">
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>6</v>
+      </c>
+      <c r="R8" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U8" s="45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="43">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="25">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="45">
         <v>10</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="12">
+        <v>8</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>10</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T10" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>10</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>10</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="7">
+        <v>11</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>10</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T13" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="12">
+        <v>12</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>10</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T14" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="7">
+        <v>13</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>10</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="12">
+        <v>14</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>10</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S16" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T16" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="U16" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="S3" s="28" t="s">
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>10</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T17" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="12">
+        <v>16</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>10</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T18" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="7">
+        <v>17</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>10</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T19" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="12">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>10</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T20" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="7">
+        <v>19</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>10</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T21" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="12">
+        <v>20</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>10</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T22" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="7">
+        <v>21</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>10</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S23" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="T23" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="12">
+        <v>22</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>6</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="50">
+        <v>23</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="53">
+        <v>10</v>
+      </c>
+      <c r="R25" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S25" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T25" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="U25" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="53">
+        <v>24</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="53">
+        <v>10</v>
+      </c>
+      <c r="R26" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T26" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="50">
+        <v>25</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="53">
+        <v>10</v>
+      </c>
+      <c r="R27" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="S27" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="T27" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="U27" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="H28" s="53">
+        <v>26</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="53">
+        <v>10</v>
+      </c>
+      <c r="R28" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="S28" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="T28" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="U28" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="50">
+        <v>27</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="53">
+        <v>10</v>
+      </c>
+      <c r="R29" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S29" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T29" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="U29" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="53">
+        <v>28</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="53">
+        <v>6</v>
+      </c>
+      <c r="R30" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="S30" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="T30" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="U30" s="53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="50">
+        <v>29</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="53">
+        <v>10</v>
+      </c>
+      <c r="R31" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="S31" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T31" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="U31" s="53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="53">
+        <v>30</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="53">
+        <v>10</v>
+      </c>
+      <c r="R32" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S32" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T32" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U32" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="50">
+        <v>31</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="52"/>
+      <c r="O33" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="53">
+        <v>6</v>
+      </c>
+      <c r="R33" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="U3" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="S33" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="T33" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="U33" s="53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B34" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C34" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D34" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="53">
+        <v>32</v>
+      </c>
+      <c r="I34" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="53">
+        <v>10</v>
+      </c>
+      <c r="R34" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="S34" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="T34" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="U34" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="65">
-        <v>2</v>
-      </c>
-      <c r="I4" s="66" t="s">
+      <c r="D35" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="56">
+        <v>33</v>
+      </c>
+      <c r="I35" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K4" s="66" t="s">
+      <c r="J35" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="59">
+        <v>10</v>
+      </c>
+      <c r="R35" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="S35" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="T35" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="U35" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="59">
+        <v>34</v>
+      </c>
+      <c r="I36" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="J36" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="59"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="H37" s="56">
+        <v>35</v>
+      </c>
+      <c r="I37" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66" t="s">
+      <c r="M37" s="58"/>
+      <c r="N37" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="25">
+      <c r="O37" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="59">
         <v>6</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R37" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="S37" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="T37" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="U37" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="T4" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B38" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C38" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="19">
-        <v>3</v>
-      </c>
-      <c r="I5" s="66" t="s">
+      <c r="D38" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="59">
+        <v>36</v>
+      </c>
+      <c r="I38" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="66" t="s">
+      <c r="J38" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L38" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="M38" s="58"/>
+      <c r="N38" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="59">
         <v>6</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="65">
-        <v>4</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>6</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="68">
-        <v>5</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="P7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>6</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S7" s="28" t="s">
+      <c r="R38" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="S38" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="T38" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="U38" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="T7" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="60" t="s">
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="16"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="16"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="14"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="H8" s="65">
-        <v>6</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="14"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>6</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="68">
-        <v>7</v>
-      </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="27">
-        <v>10</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="U9" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="71">
-        <v>8</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="61">
-        <v>10</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S10" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="20">
-        <v>9</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="61">
-        <v>10</v>
-      </c>
-      <c r="R11" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="S11" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T11" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="U11" s="61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="71">
-        <v>10</v>
-      </c>
-      <c r="I12" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="61">
-        <v>10</v>
-      </c>
-      <c r="R12" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S12" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T12" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="U12" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="20">
-        <v>11</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="61">
-        <v>10</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S13" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="71">
-        <v>12</v>
-      </c>
-      <c r="I14" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="61">
-        <v>10</v>
-      </c>
-      <c r="R14" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S14" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T14" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="20">
-        <v>13</v>
-      </c>
-      <c r="I15" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K15" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="61">
-        <v>10</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="S15" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="71">
-        <v>14</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="61">
-        <v>10</v>
-      </c>
-      <c r="R16" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="S16" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T16" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="U16" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="20">
-        <v>15</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="61">
-        <v>10</v>
-      </c>
-      <c r="R17" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S17" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T17" s="77" t="s">
-        <v>229</v>
-      </c>
-      <c r="U17" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="71">
-        <v>16</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="61">
-        <v>10</v>
-      </c>
-      <c r="R18" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S18" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T18" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="U18" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="20">
-        <v>17</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="K19" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="61">
-        <v>10</v>
-      </c>
-      <c r="R19" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="S19" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T19" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="U19" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="H20" s="71">
-        <v>18</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="61">
-        <v>10</v>
-      </c>
-      <c r="R20" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="S20" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T20" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="U20" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="20">
-        <v>19</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="K21" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="61">
-        <v>10</v>
-      </c>
-      <c r="R21" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="S21" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T21" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="U21" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="71">
-        <v>20</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="K22" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="P22" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="61">
-        <v>10</v>
-      </c>
-      <c r="R22" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="S22" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T22" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="U22" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" s="20">
-        <v>21</v>
-      </c>
-      <c r="I23" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="61">
-        <v>10</v>
-      </c>
-      <c r="R23" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="S23" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="T23" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="U23" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="71">
-        <v>22</v>
-      </c>
-      <c r="I24" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>6</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="73">
-        <v>23</v>
-      </c>
-      <c r="I25" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="70">
-        <v>10</v>
-      </c>
-      <c r="R25" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="S25" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="T25" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="U25" s="70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="26">
-        <v>24</v>
-      </c>
-      <c r="I26" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>10</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="68">
-        <v>25</v>
-      </c>
-      <c r="I27" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="K27" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L27" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="25">
-        <v>10</v>
-      </c>
-      <c r="R27" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="T27" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="70">
-        <v>26</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="25">
-        <v>10</v>
-      </c>
-      <c r="R28" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="T28" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="73">
-        <v>27</v>
-      </c>
-      <c r="I29" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="25">
-        <v>10</v>
-      </c>
-      <c r="R29" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="S29" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="T29" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="U29" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="70">
-        <v>28</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" s="74"/>
-      <c r="O30" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="25">
-        <v>6</v>
-      </c>
-      <c r="R30" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="S30" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="T30" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="73">
-        <v>29</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>10</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="S31" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="T31" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="U31" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H32" s="26">
-        <v>30</v>
-      </c>
-      <c r="I32" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K32" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="25">
-        <v>10</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="S32" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="U32" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="68">
-        <v>31</v>
-      </c>
-      <c r="I33" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="K33" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="69"/>
-      <c r="O33" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="P33" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="25">
-        <v>6</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S33" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="T33" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="U33" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="26">
-        <v>32</v>
-      </c>
-      <c r="I34" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K34" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="25">
-        <v>10</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="S34" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="U34" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="H35" s="21">
-        <v>33</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>10</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="S35" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="T35" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="U35" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="76">
-        <v>34</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="25"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="21">
-        <v>35</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O37" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="P37" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="25">
-        <v>6</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S37" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="T37" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="U37" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="70">
-        <v>36</v>
-      </c>
-      <c r="I38" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="67" t="s">
-        <v>183</v>
-      </c>
-      <c r="K38" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="P38" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="25">
-        <v>6</v>
-      </c>
-      <c r="R38" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="S38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="T38" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="U38" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="25"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="25"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="25"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="10"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="10"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="10"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="14"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="14"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="10"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="14"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="10"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="14"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="10"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="14"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="10"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="10"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="14"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="10"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="10"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="14"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="10"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="14"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="28"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="10"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="14"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="28"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="14"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="28"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="10"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="10"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="14"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="28"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="10"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="14"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="28"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="10"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="14"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="28"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="10"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="14"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="10"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="14"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="14"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="10"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="14"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="10"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="14"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="10"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="14"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="28"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="10"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="14"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="28"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="10"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="14"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="28"/>
-      <c r="T70" s="29"/>
-      <c r="U70" s="10"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="14"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="28"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="10"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="14"/>
     </row>
     <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="28"/>
-      <c r="T72" s="29"/>
-      <c r="U72" s="10"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="14"/>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4880,6 +4860,12 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4894,12 +4880,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA MA_08_07_CO.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="255">
   <si>
     <t>Asignatura</t>
   </si>
@@ -877,6 +877,24 @@
   </si>
   <si>
     <t>Interactivo para repasar el concepto de dependencia lineal</t>
+  </si>
+  <si>
+    <t>Josué</t>
+  </si>
+  <si>
+    <t>Edición/autor</t>
+  </si>
+  <si>
+    <t>Corrección de estilo</t>
+  </si>
+  <si>
+    <t>Solicitud gráfica</t>
+  </si>
+  <si>
+    <t>Interactivos</t>
+  </si>
+  <si>
+    <t>Cambios se deben pedir a Pedro</t>
   </si>
 </sst>
 </file>
@@ -935,7 +953,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1020,8 +1038,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1085,11 +1127,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1131,81 +1184,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1258,11 +1236,112 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1569,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V286"/>
+  <dimension ref="A1:Y286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,181 +1677,198 @@
     <col min="19" max="19" width="42.28515625" style="11" customWidth="1"/>
     <col min="20" max="20" width="56.5703125" style="11" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="17.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27"/>
+      <c r="V1" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="W1" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="X1" s="63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="36"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:25" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="70">
         <v>1</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="45">
+      <c r="Q3" s="73">
         <v>10</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="T3" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="U3" s="73" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="V3" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="W3" s="69">
+        <v>42394</v>
+      </c>
+      <c r="X3" s="67">
+        <v>42394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="20">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="19" t="s">
         <v>209</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1785,53 +1881,53 @@
       <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="O4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="20">
         <v>6</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="R4" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="45" t="s">
+      <c r="U4" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="18">
         <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="19" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1842,51 +1938,51 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="20">
         <v>6</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="20" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="20">
         <v>4</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="19" t="s">
         <v>130</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1899,53 +1995,53 @@
         <v>53</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="45" t="s">
+      <c r="P6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="20">
         <v>6</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="T6" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="U6" s="45" t="s">
+      <c r="U6" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="18">
         <v>5</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="19" t="s">
         <v>133</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -1958,55 +2054,55 @@
       <c r="N7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="20">
         <v>6</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="20">
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="19" t="s">
         <v>213</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -2019,53 +2115,53 @@
       <c r="N8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="O8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="20">
         <v>6</v>
       </c>
-      <c r="R8" s="45" t="s">
+      <c r="R8" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="T8" s="47" t="s">
+      <c r="T8" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="U8" s="45" t="s">
+      <c r="U8" s="20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="18">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="19" t="s">
         <v>248</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -2076,29 +2172,35 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="44" t="s">
+      <c r="O9" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="45" t="s">
+      <c r="P9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="20">
         <v>10</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="U9" s="45" t="s">
+      <c r="U9" s="20" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V9" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2145,17 +2247,20 @@
       <c r="R10" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S10" s="48" t="s">
+      <c r="S10" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T10" s="48" t="s">
+      <c r="T10" s="23" t="s">
         <v>138</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V10" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2200,17 +2305,20 @@
       <c r="R11" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="S11" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T11" s="48" t="s">
+      <c r="T11" s="23" t="s">
         <v>221</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V11" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -2255,17 +2363,20 @@
       <c r="R12" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S12" s="48" t="s">
+      <c r="S12" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T12" s="48" t="s">
+      <c r="T12" s="23" t="s">
         <v>140</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V12" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
@@ -2310,17 +2421,20 @@
       <c r="R13" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="48" t="s">
+      <c r="T13" s="23" t="s">
         <v>144</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V13" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -2365,17 +2479,20 @@
       <c r="R14" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="48" t="s">
+      <c r="S14" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T14" s="48" t="s">
+      <c r="T14" s="23" t="s">
         <v>145</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V14" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -2420,17 +2537,20 @@
       <c r="R15" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="S15" s="48" t="s">
+      <c r="S15" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="23" t="s">
         <v>146</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V15" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2475,17 +2595,20 @@
       <c r="R16" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S16" s="48" t="s">
+      <c r="S16" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T16" s="48" t="s">
+      <c r="T16" s="23" t="s">
         <v>147</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V16" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2530,17 +2653,20 @@
       <c r="R17" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S17" s="48" t="s">
+      <c r="S17" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="23" t="s">
         <v>225</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2585,17 +2711,20 @@
       <c r="R18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S18" s="48" t="s">
+      <c r="S18" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T18" s="48" t="s">
+      <c r="T18" s="23" t="s">
         <v>151</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V18" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -2640,17 +2769,20 @@
       <c r="R19" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S19" s="48" t="s">
+      <c r="S19" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T19" s="48" t="s">
+      <c r="T19" s="23" t="s">
         <v>152</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V19" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2695,17 +2827,20 @@
       <c r="R20" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S20" s="48" t="s">
+      <c r="S20" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T20" s="48" t="s">
+      <c r="T20" s="23" t="s">
         <v>226</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V20" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
@@ -2750,17 +2885,20 @@
       <c r="R21" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S21" s="48" t="s">
+      <c r="S21" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T21" s="48" t="s">
+      <c r="T21" s="23" t="s">
         <v>154</v>
       </c>
       <c r="U21" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V21" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>15</v>
       </c>
@@ -2807,17 +2945,20 @@
       <c r="R22" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="S22" s="48" t="s">
+      <c r="S22" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T22" s="48" t="s">
+      <c r="T22" s="23" t="s">
         <v>155</v>
       </c>
       <c r="U22" s="12" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V22" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -2862,17 +3003,20 @@
       <c r="R23" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S23" s="48" t="s">
+      <c r="S23" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="23" t="s">
         <v>157</v>
       </c>
       <c r="U23" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V23" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -2923,795 +3067,822 @@
       <c r="R24" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="S24" s="48" t="s">
+      <c r="S24" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="T24" s="49" t="s">
+      <c r="T24" s="24" t="s">
         <v>205</v>
       </c>
       <c r="U24" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="25">
         <v>23</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J25" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="K25" s="52" t="s">
+      <c r="K25" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="52" t="s">
+      <c r="L25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="53" t="s">
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="53">
+      <c r="Q25" s="28">
         <v>10</v>
       </c>
-      <c r="R25" s="53" t="s">
+      <c r="R25" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S25" s="54" t="s">
+      <c r="S25" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="54" t="s">
+      <c r="T25" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="V25" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="28">
         <v>24</v>
       </c>
-      <c r="I26" s="52" t="s">
+      <c r="I26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="K26" s="52" t="s">
+      <c r="K26" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="53" t="s">
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="53">
+      <c r="Q26" s="28">
         <v>10</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="R26" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S26" s="54" t="s">
+      <c r="S26" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T26" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="U26" s="53" t="s">
+      <c r="U26" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="V26" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="25">
         <v>25</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="51" t="s">
+      <c r="J27" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="53" t="s">
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="53">
+      <c r="Q27" s="28">
         <v>10</v>
       </c>
-      <c r="R27" s="53" t="s">
+      <c r="R27" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S27" s="54" t="s">
+      <c r="S27" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="T27" s="54" t="s">
+      <c r="T27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="V27" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="53">
+      <c r="H28" s="28">
         <v>26</v>
       </c>
-      <c r="I28" s="52" t="s">
+      <c r="I28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="52" t="s">
+      <c r="L28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="53" t="s">
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="53">
+      <c r="Q28" s="28">
         <v>10</v>
       </c>
-      <c r="R28" s="53" t="s">
+      <c r="R28" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S28" s="54" t="s">
+      <c r="S28" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="T28" s="54" t="s">
+      <c r="T28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="U28" s="53" t="s">
+      <c r="U28" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="V28" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="25">
         <v>27</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="J29" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="53" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="53">
+      <c r="Q29" s="28">
         <v>10</v>
       </c>
-      <c r="R29" s="53" t="s">
+      <c r="R29" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S29" s="54" t="s">
+      <c r="S29" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T29" s="54" t="s">
+      <c r="T29" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="U29" s="53" t="s">
+      <c r="U29" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="V29" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="28">
         <v>28</v>
       </c>
-      <c r="I30" s="52" t="s">
+      <c r="I30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="51" t="s">
+      <c r="J30" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="K30" s="52" t="s">
+      <c r="K30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="M30" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="51" t="s">
+      <c r="N30" s="27"/>
+      <c r="O30" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="28">
         <v>6</v>
       </c>
-      <c r="R30" s="53" t="s">
+      <c r="R30" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S30" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="T30" s="55" t="s">
+      <c r="T30" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="U30" s="53" t="s">
+      <c r="U30" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="25">
         <v>29</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="51" t="s">
+      <c r="J31" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="K31" s="52" t="s">
+      <c r="K31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="52" t="s">
+      <c r="L31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="53" t="s">
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="53">
+      <c r="Q31" s="28">
         <v>10</v>
       </c>
-      <c r="R31" s="53" t="s">
+      <c r="R31" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="S31" s="54" t="s">
+      <c r="S31" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T31" s="54" t="s">
+      <c r="T31" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="U31" s="53" t="s">
+      <c r="U31" s="28" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
+      <c r="V31" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="H32" s="53">
+      <c r="H32" s="28">
         <v>30</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="I32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="52" t="s">
+      <c r="K32" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="53" t="s">
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="53">
+      <c r="Q32" s="28">
         <v>10</v>
       </c>
-      <c r="R32" s="53" t="s">
+      <c r="R32" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S32" s="54" t="s">
+      <c r="S32" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T32" s="54" t="s">
+      <c r="T32" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="U32" s="53" t="s">
+      <c r="U32" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="V32" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="25">
         <v>31</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="51" t="s">
+      <c r="J33" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="51" t="s">
+      <c r="N33" s="27"/>
+      <c r="O33" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="P33" s="53" t="s">
+      <c r="P33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="53">
+      <c r="Q33" s="28">
         <v>6</v>
       </c>
-      <c r="R33" s="53" t="s">
+      <c r="R33" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="S33" s="54" t="s">
+      <c r="S33" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="T33" s="55" t="s">
+      <c r="T33" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="U33" s="53" t="s">
+      <c r="U33" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51" t="s">
+      <c r="F34" s="26"/>
+      <c r="G34" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H34" s="53">
+      <c r="H34" s="28">
         <v>32</v>
       </c>
-      <c r="I34" s="52" t="s">
+      <c r="I34" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="51" t="s">
+      <c r="J34" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="52" t="s">
+      <c r="L34" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="53" t="s">
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="53">
+      <c r="Q34" s="28">
         <v>10</v>
       </c>
-      <c r="R34" s="53" t="s">
+      <c r="R34" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="S34" s="54" t="s">
+      <c r="S34" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="T34" s="54" t="s">
+      <c r="T34" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="U34" s="53" t="s">
+      <c r="U34" s="28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V34" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57" t="s">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="31">
         <v>33</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="57" t="s">
+      <c r="J35" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="K35" s="58" t="s">
+      <c r="K35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="58" t="s">
+      <c r="L35" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="59" t="s">
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="59">
+      <c r="Q35" s="34">
         <v>10</v>
       </c>
-      <c r="R35" s="59" t="s">
+      <c r="R35" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="S35" s="60" t="s">
+      <c r="S35" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="T35" s="60" t="s">
+      <c r="T35" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="U35" s="59" t="s">
+      <c r="U35" s="34" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V35" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57" t="s">
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H36" s="34">
         <v>34</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="57" t="s">
+      <c r="J36" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="K36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="58" t="s">
+      <c r="L36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="59" t="s">
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="59"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="34"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57" t="s">
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="H37" s="56">
+      <c r="H37" s="31">
         <v>35</v>
       </c>
-      <c r="I37" s="58" t="s">
+      <c r="I37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="57" t="s">
+      <c r="J37" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="58" t="s">
+      <c r="L37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58" t="s">
+      <c r="M37" s="33"/>
+      <c r="N37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O37" s="57" t="s">
+      <c r="O37" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="P37" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="59">
+      <c r="Q37" s="34">
         <v>6</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="R37" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="S37" s="60" t="s">
+      <c r="S37" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="T37" s="61" t="s">
+      <c r="T37" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="U37" s="59" t="s">
+      <c r="U37" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57" t="s">
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="34">
         <v>36</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="K38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="58" t="s">
+      <c r="L38" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58" t="s">
+      <c r="M38" s="33"/>
+      <c r="N38" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="O38" s="57" t="s">
+      <c r="O38" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="P38" s="59" t="s">
+      <c r="P38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="59">
+      <c r="Q38" s="34">
         <v>6</v>
       </c>
-      <c r="R38" s="59" t="s">
+      <c r="R38" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="S38" s="60" t="s">
+      <c r="S38" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="T38" s="61" t="s">
+      <c r="T38" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="U38" s="59" t="s">
+      <c r="U38" s="34" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3734,7 +3905,7 @@
       <c r="T39" s="17"/>
       <c r="U39" s="16"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3757,7 +3928,7 @@
       <c r="T40" s="17"/>
       <c r="U40" s="16"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3780,7 +3951,7 @@
       <c r="T41" s="17"/>
       <c r="U41" s="16"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3803,7 +3974,7 @@
       <c r="T42" s="17"/>
       <c r="U42" s="14"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3828,7 +3999,7 @@
       <c r="T43" s="17"/>
       <c r="U43" s="14"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3853,7 +4024,7 @@
       <c r="T44" s="17"/>
       <c r="U44" s="14"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3876,7 +4047,7 @@
       <c r="T45" s="17"/>
       <c r="U45" s="14"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3899,7 +4070,7 @@
       <c r="T46" s="17"/>
       <c r="U46" s="14"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3921,8 +4092,20 @@
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="14"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="W47" t="s">
+        <v>253</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3944,6 +4127,12 @@
       <c r="S48" s="17"/>
       <c r="T48" s="17"/>
       <c r="U48" s="14"/>
+      <c r="W48" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
@@ -4860,12 +5049,6 @@
     <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4880,6 +5063,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
